--- a/excel/finished/焦化/CK67-装煤除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-装煤除尘报表设计.xlsx
@@ -4,29 +4,43 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="2.出焦除尘" sheetId="1" r:id="rId1"/>
     <sheet name="_coal_day_hour" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>6&amp;7#焦 装煤除尘</t>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">                                                                                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">                                                                                                                                         </t>
+      <t xml:space="preserve">        </t>
     </r>
     <r>
       <rPr>
@@ -34,7 +48,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>年</t>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -50,7 +64,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>月</t>
+      <t>日</t>
     </r>
     <r>
       <rPr>
@@ -58,24 +72,11 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">                                                                                           SGSSG-BSMCSA35-G006-03A</t>
     </r>
+  </si>
+  <si>
+    <t>SGSSG-BSMCSA35-G006-03A</t>
   </si>
   <si>
     <t xml:space="preserve">         参数
@@ -688,11 +689,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -748,14 +750,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,6 +798,37 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -785,53 +848,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,35 +871,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -921,72 +923,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -999,7 +935,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,97 +1091,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,6 +1382,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1389,11 +1430,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1432,61 +1479,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1495,140 +1497,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1646,7 +1648,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1704,6 +1706,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2177,6 +2185,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_metadata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2438,7 +2459,7 @@
   <dimension ref="B1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="I2" sqref="I2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2481,67 +2502,72 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="I2" s="26" t="e">
+        <f>[1]_metadata!B1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="P2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.75" spans="2:19">
       <c r="B3" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="9"/>
       <c r="H3" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="R3" s="31" t="s">
         <v>12</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="36.75" spans="2:19">
       <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -2556,81 +2582,81 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="13"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="34"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="78.75" spans="2:19">
       <c r="B5" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
@@ -2661,7 +2687,7 @@
         <f>IF(_coal_day_hour!F2="","",_coal_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="26" t="str">
+      <c r="I6" s="28" t="str">
         <f>IF(_coal_day_hour!G2="","",_coal_day_hour!G2)</f>
         <v/>
       </c>
@@ -2697,7 +2723,7 @@
         <f>IF(_coal_day_hour!O2="","",_coal_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="33" t="str">
+      <c r="R6" s="35" t="str">
         <f>IF(_coal_day_hour!P2="","",_coal_day_hour!P2)</f>
         <v/>
       </c>
@@ -2734,7 +2760,7 @@
         <f>IF(_coal_day_hour!F3="","",_coal_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="26" t="str">
+      <c r="I7" s="28" t="str">
         <f>IF(_coal_day_hour!G3="","",_coal_day_hour!G3)</f>
         <v/>
       </c>
@@ -2770,7 +2796,7 @@
         <f>IF(_coal_day_hour!O3="","",_coal_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="34" t="str">
+      <c r="R7" s="36" t="str">
         <f>IF(_coal_day_hour!P3="","",_coal_day_hour!P3)</f>
         <v/>
       </c>
@@ -2807,7 +2833,7 @@
         <f>IF(_coal_day_hour!F4="","",_coal_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I8" s="26" t="str">
+      <c r="I8" s="28" t="str">
         <f>IF(_coal_day_hour!G4="","",_coal_day_hour!G4)</f>
         <v/>
       </c>
@@ -2880,7 +2906,7 @@
         <f>IF(_coal_day_hour!F5="","",_coal_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="26" t="str">
+      <c r="I9" s="28" t="str">
         <f>IF(_coal_day_hour!G5="","",_coal_day_hour!G5)</f>
         <v/>
       </c>
@@ -2953,7 +2979,7 @@
         <f>IF(_coal_day_hour!F6="","",_coal_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I10" s="26" t="str">
+      <c r="I10" s="28" t="str">
         <f>IF(_coal_day_hour!G6="","",_coal_day_hour!G6)</f>
         <v/>
       </c>
@@ -3026,7 +3052,7 @@
         <f>IF(_coal_day_hour!F7="","",_coal_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I11" s="26" t="str">
+      <c r="I11" s="28" t="str">
         <f>IF(_coal_day_hour!G7="","",_coal_day_hour!G7)</f>
         <v/>
       </c>
@@ -3099,7 +3125,7 @@
         <f>IF(_coal_day_hour!F8="","",_coal_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I12" s="26" t="str">
+      <c r="I12" s="28" t="str">
         <f>IF(_coal_day_hour!G8="","",_coal_day_hour!G8)</f>
         <v/>
       </c>
@@ -3172,7 +3198,7 @@
         <f>IF(_coal_day_hour!F9="","",_coal_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I13" s="26" t="str">
+      <c r="I13" s="28" t="str">
         <f>IF(_coal_day_hour!G9="","",_coal_day_hour!G9)</f>
         <v/>
       </c>
@@ -3245,7 +3271,7 @@
         <f>IF(_coal_day_hour!F10="","",_coal_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="26" t="str">
+      <c r="I14" s="28" t="str">
         <f>IF(_coal_day_hour!G10="","",_coal_day_hour!G10)</f>
         <v/>
       </c>
@@ -3318,7 +3344,7 @@
         <f>IF(_coal_day_hour!F11="","",_coal_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I15" s="26" t="str">
+      <c r="I15" s="28" t="str">
         <f>IF(_coal_day_hour!G11="","",_coal_day_hour!G11)</f>
         <v/>
       </c>
@@ -3391,7 +3417,7 @@
         <f>IF(_coal_day_hour!F12="","",_coal_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I16" s="26" t="str">
+      <c r="I16" s="28" t="str">
         <f>IF(_coal_day_hour!G12="","",_coal_day_hour!G12)</f>
         <v/>
       </c>
@@ -3464,7 +3490,7 @@
         <f>IF(_coal_day_hour!F13="","",_coal_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I17" s="26" t="str">
+      <c r="I17" s="28" t="str">
         <f>IF(_coal_day_hour!G13="","",_coal_day_hour!G13)</f>
         <v/>
       </c>
@@ -3565,19 +3591,19 @@
         <f>IF(_coal_day_hour!M14="","",_coal_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="27" t="str">
+      <c r="P18" s="29" t="str">
         <f>IF(_coal_day_hour!N14="","",_coal_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="27" t="str">
+      <c r="Q18" s="29" t="str">
         <f>IF(_coal_day_hour!O14="","",_coal_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="33" t="str">
+      <c r="R18" s="35" t="str">
         <f>IF(_coal_day_hour!P14="","",_coal_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="35" t="str">
+      <c r="S18" s="37" t="str">
         <f>IF(_coal_day_hour!Q14="","",_coal_day_hour!Q14)</f>
         <v/>
       </c>
@@ -3638,19 +3664,19 @@
         <f>IF(_coal_day_hour!M15="","",_coal_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="27" t="str">
+      <c r="P19" s="29" t="str">
         <f>IF(_coal_day_hour!N15="","",_coal_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="27" t="str">
+      <c r="Q19" s="29" t="str">
         <f>IF(_coal_day_hour!O15="","",_coal_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="34" t="str">
+      <c r="R19" s="36" t="str">
         <f>IF(_coal_day_hour!P15="","",_coal_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="35" t="str">
+      <c r="S19" s="37" t="str">
         <f>IF(_coal_day_hour!Q15="","",_coal_day_hour!Q15)</f>
         <v/>
       </c>
@@ -3711,19 +3737,19 @@
         <f>IF(_coal_day_hour!M16="","",_coal_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="27" t="str">
+      <c r="P20" s="29" t="str">
         <f>IF(_coal_day_hour!N16="","",_coal_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="27" t="str">
+      <c r="Q20" s="29" t="str">
         <f>IF(_coal_day_hour!O16="","",_coal_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="27" t="str">
+      <c r="R20" s="29" t="str">
         <f>IF(_coal_day_hour!P16="","",_coal_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="35" t="str">
+      <c r="S20" s="37" t="str">
         <f>IF(_coal_day_hour!Q16="","",_coal_day_hour!Q16)</f>
         <v/>
       </c>
@@ -3784,19 +3810,19 @@
         <f>IF(_coal_day_hour!M17="","",_coal_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="27" t="str">
+      <c r="P21" s="29" t="str">
         <f>IF(_coal_day_hour!N17="","",_coal_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="27" t="str">
+      <c r="Q21" s="29" t="str">
         <f>IF(_coal_day_hour!O17="","",_coal_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="27" t="str">
+      <c r="R21" s="29" t="str">
         <f>IF(_coal_day_hour!P17="","",_coal_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="35" t="str">
+      <c r="S21" s="37" t="str">
         <f>IF(_coal_day_hour!Q17="","",_coal_day_hour!Q17)</f>
         <v/>
       </c>
@@ -3857,19 +3883,19 @@
         <f>IF(_coal_day_hour!M18="","",_coal_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="27" t="str">
+      <c r="P22" s="29" t="str">
         <f>IF(_coal_day_hour!N18="","",_coal_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="27" t="str">
+      <c r="Q22" s="29" t="str">
         <f>IF(_coal_day_hour!O18="","",_coal_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="27" t="str">
+      <c r="R22" s="29" t="str">
         <f>IF(_coal_day_hour!P18="","",_coal_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="35" t="str">
+      <c r="S22" s="37" t="str">
         <f>IF(_coal_day_hour!Q18="","",_coal_day_hour!Q18)</f>
         <v/>
       </c>
@@ -3930,19 +3956,19 @@
         <f>IF(_coal_day_hour!M19="","",_coal_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="27" t="str">
+      <c r="P23" s="29" t="str">
         <f>IF(_coal_day_hour!N19="","",_coal_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="27" t="str">
+      <c r="Q23" s="29" t="str">
         <f>IF(_coal_day_hour!O19="","",_coal_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="27" t="str">
+      <c r="R23" s="29" t="str">
         <f>IF(_coal_day_hour!P19="","",_coal_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="35" t="str">
+      <c r="S23" s="37" t="str">
         <f>IF(_coal_day_hour!Q19="","",_coal_day_hour!Q19)</f>
         <v/>
       </c>
@@ -4003,19 +4029,19 @@
         <f>IF(_coal_day_hour!M20="","",_coal_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="27" t="str">
+      <c r="P24" s="29" t="str">
         <f>IF(_coal_day_hour!N20="","",_coal_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="27" t="str">
+      <c r="Q24" s="29" t="str">
         <f>IF(_coal_day_hour!O20="","",_coal_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="27" t="str">
+      <c r="R24" s="29" t="str">
         <f>IF(_coal_day_hour!P20="","",_coal_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="35" t="str">
+      <c r="S24" s="37" t="str">
         <f>IF(_coal_day_hour!Q20="","",_coal_day_hour!Q20)</f>
         <v/>
       </c>
@@ -4076,19 +4102,19 @@
         <f>IF(_coal_day_hour!M21="","",_coal_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="27" t="str">
+      <c r="P25" s="29" t="str">
         <f>IF(_coal_day_hour!N21="","",_coal_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="27" t="str">
+      <c r="Q25" s="29" t="str">
         <f>IF(_coal_day_hour!O21="","",_coal_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="27" t="str">
+      <c r="R25" s="29" t="str">
         <f>IF(_coal_day_hour!P21="","",_coal_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="35" t="str">
+      <c r="S25" s="37" t="str">
         <f>IF(_coal_day_hour!Q21="","",_coal_day_hour!Q21)</f>
         <v/>
       </c>
@@ -4149,19 +4175,19 @@
         <f>IF(_coal_day_hour!M22="","",_coal_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="27" t="str">
+      <c r="P26" s="29" t="str">
         <f>IF(_coal_day_hour!N22="","",_coal_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="27" t="str">
+      <c r="Q26" s="29" t="str">
         <f>IF(_coal_day_hour!O22="","",_coal_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="27" t="str">
+      <c r="R26" s="29" t="str">
         <f>IF(_coal_day_hour!P22="","",_coal_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="35" t="str">
+      <c r="S26" s="37" t="str">
         <f>IF(_coal_day_hour!Q22="","",_coal_day_hour!Q22)</f>
         <v/>
       </c>
@@ -4222,19 +4248,19 @@
         <f>IF(_coal_day_hour!M23="","",_coal_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="27" t="str">
+      <c r="P27" s="29" t="str">
         <f>IF(_coal_day_hour!N23="","",_coal_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="27" t="str">
+      <c r="Q27" s="29" t="str">
         <f>IF(_coal_day_hour!O23="","",_coal_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="27" t="str">
+      <c r="R27" s="29" t="str">
         <f>IF(_coal_day_hour!P23="","",_coal_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="35" t="str">
+      <c r="S27" s="37" t="str">
         <f>IF(_coal_day_hour!Q23="","",_coal_day_hour!Q23)</f>
         <v/>
       </c>
@@ -4295,19 +4321,19 @@
         <f>IF(_coal_day_hour!M24="","",_coal_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="27" t="str">
+      <c r="P28" s="29" t="str">
         <f>IF(_coal_day_hour!N24="","",_coal_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="27" t="str">
+      <c r="Q28" s="29" t="str">
         <f>IF(_coal_day_hour!O24="","",_coal_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="27" t="str">
+      <c r="R28" s="29" t="str">
         <f>IF(_coal_day_hour!P24="","",_coal_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="35" t="str">
+      <c r="S28" s="37" t="str">
         <f>IF(_coal_day_hour!Q24="","",_coal_day_hour!Q24)</f>
         <v/>
       </c>
@@ -4368,26 +4394,26 @@
         <f>IF(_coal_day_hour!M25="","",_coal_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="27" t="str">
+      <c r="P29" s="29" t="str">
         <f>IF(_coal_day_hour!N25="","",_coal_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="27" t="str">
+      <c r="Q29" s="29" t="str">
         <f>IF(_coal_day_hour!O25="","",_coal_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="27" t="str">
+      <c r="R29" s="29" t="str">
         <f>IF(_coal_day_hour!P25="","",_coal_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="35" t="str">
+      <c r="S29" s="37" t="str">
         <f>IF(_coal_day_hour!Q25="","",_coal_day_hour!Q25)</f>
         <v/>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
       <c r="B30" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -4402,14 +4428,14 @@
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="35"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="37"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
       <c r="B31" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -4424,14 +4450,14 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="35"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="37"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="15.6" customHeight="1" spans="2:19">
       <c r="B32" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -4446,14 +4472,14 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="35"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="37"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="16.5" spans="2:19">
       <c r="B33" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -4468,14 +4494,14 @@
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="36"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="38"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="71.45" customHeight="1" spans="2:19">
       <c r="B34" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -4483,7 +4509,7 @@
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
       <c r="H34" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -4491,7 +4517,7 @@
       <c r="L34" s="21"/>
       <c r="M34" s="22"/>
       <c r="N34" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
@@ -4501,7 +4527,7 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
       <c r="B35" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
@@ -4509,7 +4535,7 @@
       <c r="F35" s="24"/>
       <c r="G35" s="25"/>
       <c r="H35" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
@@ -4517,7 +4543,7 @@
       <c r="L35" s="24"/>
       <c r="M35" s="25"/>
       <c r="N35" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
@@ -4537,9 +4563,10 @@
     <row r="96" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="104" s="1" customFormat="1" ht="36.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="B1:S1"/>
-    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:S2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="K3:L3"/>
@@ -4580,55 +4607,55 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="63" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/焦化/CK67-装煤除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-装煤除尘报表设计.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="2.出焦除尘" sheetId="1" r:id="rId1"/>
     <sheet name="_coal_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -24,6 +22,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">                                                                                                                                         </t>
     </r>
     <r>
@@ -690,11 +693,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -742,8 +745,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,97 +784,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -871,8 +820,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,6 +864,28 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -923,7 +926,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,31 +956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,13 +968,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,13 +998,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,7 +1022,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,79 +1106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,17 +1385,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1412,35 +1415,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1465,6 +1450,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1479,16 +1473,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1497,133 +1500,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -2185,19 +2188,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2502,9 +2492,9 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="26" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
+      <c r="I2" s="26">
+        <f>_metadata!B1</f>
+        <v>0</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -4662,4 +4652,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/finished/焦化/CK67-装煤除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-装煤除尘报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="2.出焦除尘" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>6&amp;7#焦 装煤除尘</t>
   </si>
@@ -25,7 +25,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                                                                                                                                         </t>
     </r>
@@ -41,7 +41,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -57,7 +57,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -73,7 +73,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                                                                                           SGSSG-BSMCSA35-G006-03A</t>
     </r>
@@ -110,7 +110,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -137,7 +137,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -168,7 +168,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>m</t>
     </r>
@@ -177,7 +177,7 @@
         <vertAlign val="superscript"/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -185,7 +185,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/h</t>
     </r>
@@ -211,7 +211,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  
 </t>
@@ -238,7 +238,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">       
 </t>
@@ -255,7 +255,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>mm/s</t>
     </r>
@@ -294,7 +294,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Kpa</t>
     </r>
@@ -320,7 +320,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
@@ -337,7 +337,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Mpa</t>
     </r>
@@ -355,7 +355,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">1
 </t>
@@ -374,7 +374,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">2
 </t>
@@ -393,7 +393,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -411,7 +411,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">1A
 </t>
@@ -430,7 +430,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">2A
 </t>
@@ -449,7 +449,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">1B
 </t>
@@ -468,7 +468,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">2B
 </t>
@@ -553,7 +553,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -578,7 +578,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -588,7 +588,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -613,7 +613,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -623,7 +623,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -648,7 +648,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -658,7 +658,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -674,7 +674,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -691,15 +691,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,12 +708,12 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="22"/>
@@ -736,7 +729,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -745,154 +738,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -910,8 +759,14 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,194 +779,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="30">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1384,251 +1053,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
@@ -1638,158 +1065,111 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1800,7 +1180,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1814,7 +1194,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -2006,7 +1386,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
@@ -2440,19 +1820,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="8.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
@@ -2460,99 +1840,99 @@
     <col min="257" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="2:19">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.5" spans="2:19">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="26">
-        <f>_metadata!B1</f>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="38">
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="27" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.75" spans="2:19">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="11" t="s">
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="36.75" spans="2:19">
-      <c r="B4" s="12"/>
+    <row r="4" spans="2:19" ht="36.75" x14ac:dyDescent="0.15">
+      <c r="B4" s="31"/>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
@@ -2568,9 +1948,9 @@
       <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
       <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2589,12 +1969,12 @@
       <c r="P4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="37"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="78.75" spans="2:19">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:19" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2649,8 +2029,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B6" s="15">
+    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="str">
@@ -2677,7 +2057,7 @@
         <f>IF(_coal_day_hour!F2="","",_coal_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="28" t="str">
+      <c r="I6" s="12" t="str">
         <f>IF(_coal_day_hour!G2="","",_coal_day_hour!G2)</f>
         <v/>
       </c>
@@ -2713,7 +2093,7 @@
         <f>IF(_coal_day_hour!O2="","",_coal_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="35" t="str">
+      <c r="R6" s="15" t="str">
         <f>IF(_coal_day_hour!P2="","",_coal_day_hour!P2)</f>
         <v/>
       </c>
@@ -2722,9 +2102,9 @@
         <v/>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.75" spans="2:19">
-      <c r="B7" s="15">
-        <v>0.0416666666666667</v>
+    <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B7" s="7">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>IF(_coal_day_hour!A3="","",_coal_day_hour!A3)</f>
@@ -2750,7 +2130,7 @@
         <f>IF(_coal_day_hour!F3="","",_coal_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="28" t="str">
+      <c r="I7" s="12" t="str">
         <f>IF(_coal_day_hour!G3="","",_coal_day_hour!G3)</f>
         <v/>
       </c>
@@ -2786,7 +2166,7 @@
         <f>IF(_coal_day_hour!O3="","",_coal_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="36" t="str">
+      <c r="R7" s="16" t="str">
         <f>IF(_coal_day_hour!P3="","",_coal_day_hour!P3)</f>
         <v/>
       </c>
@@ -2795,9 +2175,9 @@
         <v/>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.75" spans="2:19">
-      <c r="B8" s="15">
-        <v>0.0833333333333333</v>
+    <row r="8" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B8" s="7">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>IF(_coal_day_hour!A4="","",_coal_day_hour!A4)</f>
@@ -2823,7 +2203,7 @@
         <f>IF(_coal_day_hour!F4="","",_coal_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I8" s="28" t="str">
+      <c r="I8" s="12" t="str">
         <f>IF(_coal_day_hour!G4="","",_coal_day_hour!G4)</f>
         <v/>
       </c>
@@ -2868,8 +2248,8 @@
         <v/>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15.75" spans="2:19">
-      <c r="B9" s="15">
+    <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B9" s="7">
         <v>0.125</v>
       </c>
       <c r="C9" s="2" t="str">
@@ -2896,7 +2276,7 @@
         <f>IF(_coal_day_hour!F5="","",_coal_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="28" t="str">
+      <c r="I9" s="12" t="str">
         <f>IF(_coal_day_hour!G5="","",_coal_day_hour!G5)</f>
         <v/>
       </c>
@@ -2941,9 +2321,9 @@
         <v/>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15.75" spans="2:19">
-      <c r="B10" s="15">
-        <v>0.166666666666667</v>
+    <row r="10" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B10" s="7">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>IF(_coal_day_hour!A6="","",_coal_day_hour!A6)</f>
@@ -2969,7 +2349,7 @@
         <f>IF(_coal_day_hour!F6="","",_coal_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I10" s="28" t="str">
+      <c r="I10" s="12" t="str">
         <f>IF(_coal_day_hour!G6="","",_coal_day_hour!G6)</f>
         <v/>
       </c>
@@ -3014,9 +2394,9 @@
         <v/>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B11" s="15">
-        <v>0.208333333333333</v>
+    <row r="11" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="7">
+        <v>0.20833333333333301</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>IF(_coal_day_hour!A7="","",_coal_day_hour!A7)</f>
@@ -3042,7 +2422,7 @@
         <f>IF(_coal_day_hour!F7="","",_coal_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I11" s="28" t="str">
+      <c r="I11" s="12" t="str">
         <f>IF(_coal_day_hour!G7="","",_coal_day_hour!G7)</f>
         <v/>
       </c>
@@ -3087,8 +2467,8 @@
         <v/>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B12" s="15">
+    <row r="12" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="7">
         <v>0.25</v>
       </c>
       <c r="C12" s="2" t="str">
@@ -3115,7 +2495,7 @@
         <f>IF(_coal_day_hour!F8="","",_coal_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I12" s="28" t="str">
+      <c r="I12" s="12" t="str">
         <f>IF(_coal_day_hour!G8="","",_coal_day_hour!G8)</f>
         <v/>
       </c>
@@ -3160,9 +2540,9 @@
         <v/>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B13" s="15">
-        <v>0.291666666666667</v>
+    <row r="13" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="7">
+        <v>0.29166666666666702</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>IF(_coal_day_hour!A9="","",_coal_day_hour!A9)</f>
@@ -3188,7 +2568,7 @@
         <f>IF(_coal_day_hour!F9="","",_coal_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I13" s="28" t="str">
+      <c r="I13" s="12" t="str">
         <f>IF(_coal_day_hour!G9="","",_coal_day_hour!G9)</f>
         <v/>
       </c>
@@ -3233,9 +2613,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B14" s="15">
-        <v>0.333333333333333</v>
+    <row r="14" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="7">
+        <v>0.33333333333333298</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>IF(_coal_day_hour!A10="","",_coal_day_hour!A10)</f>
@@ -3261,7 +2641,7 @@
         <f>IF(_coal_day_hour!F10="","",_coal_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="28" t="str">
+      <c r="I14" s="12" t="str">
         <f>IF(_coal_day_hour!G10="","",_coal_day_hour!G10)</f>
         <v/>
       </c>
@@ -3306,8 +2686,8 @@
         <v/>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B15" s="15">
+    <row r="15" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="7">
         <v>0.375</v>
       </c>
       <c r="C15" s="2" t="str">
@@ -3334,7 +2714,7 @@
         <f>IF(_coal_day_hour!F11="","",_coal_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I15" s="28" t="str">
+      <c r="I15" s="12" t="str">
         <f>IF(_coal_day_hour!G11="","",_coal_day_hour!G11)</f>
         <v/>
       </c>
@@ -3379,9 +2759,9 @@
         <v/>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B16" s="15">
-        <v>0.416666666666667</v>
+    <row r="16" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="7">
+        <v>0.41666666666666702</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(_coal_day_hour!A12="","",_coal_day_hour!A12)</f>
@@ -3407,7 +2787,7 @@
         <f>IF(_coal_day_hour!F12="","",_coal_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I16" s="28" t="str">
+      <c r="I16" s="12" t="str">
         <f>IF(_coal_day_hour!G12="","",_coal_day_hour!G12)</f>
         <v/>
       </c>
@@ -3452,9 +2832,9 @@
         <v/>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B17" s="15">
-        <v>0.458333333333333</v>
+    <row r="17" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="7">
+        <v>0.45833333333333298</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>IF(_coal_day_hour!A13="","",_coal_day_hour!A13)</f>
@@ -3480,7 +2860,7 @@
         <f>IF(_coal_day_hour!F13="","",_coal_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I17" s="28" t="str">
+      <c r="I17" s="12" t="str">
         <f>IF(_coal_day_hour!G13="","",_coal_day_hour!G13)</f>
         <v/>
       </c>
@@ -3525,1035 +2905,1041 @@
         <v/>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B18" s="15">
+    <row r="18" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
         <v>0.5</v>
       </c>
-      <c r="C18" s="16" t="str">
+      <c r="C18" s="8" t="str">
         <f>IF(_coal_day_hour!A14="","",_coal_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="8" t="str">
         <f>IF(_coal_day_hour!B14="","",_coal_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E18" s="16" t="str">
+      <c r="E18" s="8" t="str">
         <f>IF(_coal_day_hour!C14="","",_coal_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F18" s="16" t="str">
+      <c r="F18" s="8" t="str">
         <f>IF(_coal_day_hour!D14="","",_coal_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G18" s="16" t="str">
+      <c r="G18" s="8" t="str">
         <f>IF(_coal_day_hour!E14="","",_coal_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H18" s="16" t="str">
+      <c r="H18" s="8" t="str">
         <f>IF(_coal_day_hour!F14="","",_coal_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I18" s="16" t="str">
+      <c r="I18" s="8" t="str">
         <f>IF(_coal_day_hour!G14="","",_coal_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J18" s="16" t="str">
+      <c r="J18" s="8" t="str">
         <f>IF(_coal_day_hour!H14="","",_coal_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K18" s="16" t="str">
+      <c r="K18" s="8" t="str">
         <f>IF(_coal_day_hour!I14="","",_coal_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L18" s="16" t="str">
+      <c r="L18" s="8" t="str">
         <f>IF(_coal_day_hour!J14="","",_coal_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M18" s="16" t="str">
+      <c r="M18" s="8" t="str">
         <f>IF(_coal_day_hour!K14="","",_coal_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N18" s="16" t="str">
+      <c r="N18" s="8" t="str">
         <f>IF(_coal_day_hour!L14="","",_coal_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O18" s="16" t="str">
+      <c r="O18" s="8" t="str">
         <f>IF(_coal_day_hour!M14="","",_coal_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="29" t="str">
+      <c r="P18" s="13" t="str">
         <f>IF(_coal_day_hour!N14="","",_coal_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="29" t="str">
+      <c r="Q18" s="13" t="str">
         <f>IF(_coal_day_hour!O14="","",_coal_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="35" t="str">
+      <c r="R18" s="15" t="str">
         <f>IF(_coal_day_hour!P14="","",_coal_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="37" t="str">
+      <c r="S18" s="17" t="str">
         <f>IF(_coal_day_hour!Q14="","",_coal_day_hour!Q14)</f>
         <v/>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B19" s="15">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="C19" s="16" t="str">
+    <row r="19" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C19" s="8" t="str">
         <f>IF(_coal_day_hour!A15="","",_coal_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D19" s="16" t="str">
+      <c r="D19" s="8" t="str">
         <f>IF(_coal_day_hour!B15="","",_coal_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E19" s="16" t="str">
+      <c r="E19" s="8" t="str">
         <f>IF(_coal_day_hour!C15="","",_coal_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F19" s="16" t="str">
+      <c r="F19" s="8" t="str">
         <f>IF(_coal_day_hour!D15="","",_coal_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G19" s="16" t="str">
+      <c r="G19" s="8" t="str">
         <f>IF(_coal_day_hour!E15="","",_coal_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H19" s="16" t="str">
+      <c r="H19" s="8" t="str">
         <f>IF(_coal_day_hour!F15="","",_coal_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="8" t="str">
         <f>IF(_coal_day_hour!G15="","",_coal_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J19" s="16" t="str">
+      <c r="J19" s="8" t="str">
         <f>IF(_coal_day_hour!H15="","",_coal_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K19" s="16" t="str">
+      <c r="K19" s="8" t="str">
         <f>IF(_coal_day_hour!I15="","",_coal_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L19" s="16" t="str">
+      <c r="L19" s="8" t="str">
         <f>IF(_coal_day_hour!J15="","",_coal_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M19" s="16" t="str">
+      <c r="M19" s="8" t="str">
         <f>IF(_coal_day_hour!K15="","",_coal_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N19" s="16" t="str">
+      <c r="N19" s="8" t="str">
         <f>IF(_coal_day_hour!L15="","",_coal_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O19" s="16" t="str">
+      <c r="O19" s="8" t="str">
         <f>IF(_coal_day_hour!M15="","",_coal_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="29" t="str">
+      <c r="P19" s="13" t="str">
         <f>IF(_coal_day_hour!N15="","",_coal_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="29" t="str">
+      <c r="Q19" s="13" t="str">
         <f>IF(_coal_day_hour!O15="","",_coal_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="36" t="str">
+      <c r="R19" s="16" t="str">
         <f>IF(_coal_day_hour!P15="","",_coal_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="37" t="str">
+      <c r="S19" s="17" t="str">
         <f>IF(_coal_day_hour!Q15="","",_coal_day_hour!Q15)</f>
         <v/>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
-      <c r="B20" s="15">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C20" s="16" t="str">
+    <row r="20" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C20" s="8" t="str">
         <f>IF(_coal_day_hour!A16="","",_coal_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" s="8" t="str">
         <f>IF(_coal_day_hour!B16="","",_coal_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E20" s="16" t="str">
+      <c r="E20" s="8" t="str">
         <f>IF(_coal_day_hour!C16="","",_coal_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F20" s="16" t="str">
+      <c r="F20" s="8" t="str">
         <f>IF(_coal_day_hour!D16="","",_coal_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G20" s="16" t="str">
+      <c r="G20" s="8" t="str">
         <f>IF(_coal_day_hour!E16="","",_coal_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H20" s="16" t="str">
+      <c r="H20" s="8" t="str">
         <f>IF(_coal_day_hour!F16="","",_coal_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I20" s="16" t="str">
+      <c r="I20" s="8" t="str">
         <f>IF(_coal_day_hour!G16="","",_coal_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J20" s="16" t="str">
+      <c r="J20" s="8" t="str">
         <f>IF(_coal_day_hour!H16="","",_coal_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K20" s="16" t="str">
+      <c r="K20" s="8" t="str">
         <f>IF(_coal_day_hour!I16="","",_coal_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L20" s="16" t="str">
+      <c r="L20" s="8" t="str">
         <f>IF(_coal_day_hour!J16="","",_coal_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M20" s="16" t="str">
+      <c r="M20" s="8" t="str">
         <f>IF(_coal_day_hour!K16="","",_coal_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N20" s="16" t="str">
+      <c r="N20" s="8" t="str">
         <f>IF(_coal_day_hour!L16="","",_coal_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O20" s="16" t="str">
+      <c r="O20" s="8" t="str">
         <f>IF(_coal_day_hour!M16="","",_coal_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="29" t="str">
+      <c r="P20" s="13" t="str">
         <f>IF(_coal_day_hour!N16="","",_coal_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="29" t="str">
+      <c r="Q20" s="13" t="str">
         <f>IF(_coal_day_hour!O16="","",_coal_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="29" t="str">
+      <c r="R20" s="13" t="str">
         <f>IF(_coal_day_hour!P16="","",_coal_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="37" t="str">
+      <c r="S20" s="17" t="str">
         <f>IF(_coal_day_hour!Q16="","",_coal_day_hour!Q16)</f>
         <v/>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="15.6" customHeight="1" spans="2:19">
-      <c r="B21" s="15">
+    <row r="21" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
         <v>0.625</v>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="8" t="str">
         <f>IF(_coal_day_hour!A17="","",_coal_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" s="8" t="str">
         <f>IF(_coal_day_hour!B17="","",_coal_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E21" s="16" t="str">
+      <c r="E21" s="8" t="str">
         <f>IF(_coal_day_hour!C17="","",_coal_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F21" s="16" t="str">
+      <c r="F21" s="8" t="str">
         <f>IF(_coal_day_hour!D17="","",_coal_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G21" s="16" t="str">
+      <c r="G21" s="8" t="str">
         <f>IF(_coal_day_hour!E17="","",_coal_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H21" s="16" t="str">
+      <c r="H21" s="8" t="str">
         <f>IF(_coal_day_hour!F17="","",_coal_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I21" s="16" t="str">
+      <c r="I21" s="8" t="str">
         <f>IF(_coal_day_hour!G17="","",_coal_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J21" s="16" t="str">
+      <c r="J21" s="8" t="str">
         <f>IF(_coal_day_hour!H17="","",_coal_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K21" s="16" t="str">
+      <c r="K21" s="8" t="str">
         <f>IF(_coal_day_hour!I17="","",_coal_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L21" s="16" t="str">
+      <c r="L21" s="8" t="str">
         <f>IF(_coal_day_hour!J17="","",_coal_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M21" s="16" t="str">
+      <c r="M21" s="8" t="str">
         <f>IF(_coal_day_hour!K17="","",_coal_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N21" s="16" t="str">
+      <c r="N21" s="8" t="str">
         <f>IF(_coal_day_hour!L17="","",_coal_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O21" s="16" t="str">
+      <c r="O21" s="8" t="str">
         <f>IF(_coal_day_hour!M17="","",_coal_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="29" t="str">
+      <c r="P21" s="13" t="str">
         <f>IF(_coal_day_hour!N17="","",_coal_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="29" t="str">
+      <c r="Q21" s="13" t="str">
         <f>IF(_coal_day_hour!O17="","",_coal_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="29" t="str">
+      <c r="R21" s="13" t="str">
         <f>IF(_coal_day_hour!P17="","",_coal_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="37" t="str">
+      <c r="S21" s="17" t="str">
         <f>IF(_coal_day_hour!Q17="","",_coal_day_hour!Q17)</f>
         <v/>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B22" s="15">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C22" s="16" t="str">
+    <row r="22" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C22" s="8" t="str">
         <f>IF(_coal_day_hour!A18="","",_coal_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" s="8" t="str">
         <f>IF(_coal_day_hour!B18="","",_coal_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="16" t="str">
+      <c r="E22" s="8" t="str">
         <f>IF(_coal_day_hour!C18="","",_coal_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="16" t="str">
+      <c r="F22" s="8" t="str">
         <f>IF(_coal_day_hour!D18="","",_coal_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="16" t="str">
+      <c r="G22" s="8" t="str">
         <f>IF(_coal_day_hour!E18="","",_coal_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="16" t="str">
+      <c r="H22" s="8" t="str">
         <f>IF(_coal_day_hour!F18="","",_coal_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="16" t="str">
+      <c r="I22" s="8" t="str">
         <f>IF(_coal_day_hour!G18="","",_coal_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="16" t="str">
+      <c r="J22" s="8" t="str">
         <f>IF(_coal_day_hour!H18="","",_coal_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="16" t="str">
+      <c r="K22" s="8" t="str">
         <f>IF(_coal_day_hour!I18="","",_coal_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="16" t="str">
+      <c r="L22" s="8" t="str">
         <f>IF(_coal_day_hour!J18="","",_coal_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="16" t="str">
+      <c r="M22" s="8" t="str">
         <f>IF(_coal_day_hour!K18="","",_coal_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="16" t="str">
+      <c r="N22" s="8" t="str">
         <f>IF(_coal_day_hour!L18="","",_coal_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="16" t="str">
+      <c r="O22" s="8" t="str">
         <f>IF(_coal_day_hour!M18="","",_coal_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="29" t="str">
+      <c r="P22" s="13" t="str">
         <f>IF(_coal_day_hour!N18="","",_coal_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="29" t="str">
+      <c r="Q22" s="13" t="str">
         <f>IF(_coal_day_hour!O18="","",_coal_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="29" t="str">
+      <c r="R22" s="13" t="str">
         <f>IF(_coal_day_hour!P18="","",_coal_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="37" t="str">
+      <c r="S22" s="17" t="str">
         <f>IF(_coal_day_hour!Q18="","",_coal_day_hour!Q18)</f>
         <v/>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B23" s="15">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C23" s="16" t="str">
+    <row r="23" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C23" s="8" t="str">
         <f>IF(_coal_day_hour!A19="","",_coal_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" s="8" t="str">
         <f>IF(_coal_day_hour!B19="","",_coal_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E23" s="16" t="str">
+      <c r="E23" s="8" t="str">
         <f>IF(_coal_day_hour!C19="","",_coal_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F23" s="16" t="str">
+      <c r="F23" s="8" t="str">
         <f>IF(_coal_day_hour!D19="","",_coal_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G23" s="16" t="str">
+      <c r="G23" s="8" t="str">
         <f>IF(_coal_day_hour!E19="","",_coal_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H23" s="16" t="str">
+      <c r="H23" s="8" t="str">
         <f>IF(_coal_day_hour!F19="","",_coal_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I23" s="16" t="str">
+      <c r="I23" s="8" t="str">
         <f>IF(_coal_day_hour!G19="","",_coal_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J23" s="16" t="str">
+      <c r="J23" s="8" t="str">
         <f>IF(_coal_day_hour!H19="","",_coal_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K23" s="16" t="str">
+      <c r="K23" s="8" t="str">
         <f>IF(_coal_day_hour!I19="","",_coal_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L23" s="16" t="str">
+      <c r="L23" s="8" t="str">
         <f>IF(_coal_day_hour!J19="","",_coal_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M23" s="16" t="str">
+      <c r="M23" s="8" t="str">
         <f>IF(_coal_day_hour!K19="","",_coal_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N23" s="16" t="str">
+      <c r="N23" s="8" t="str">
         <f>IF(_coal_day_hour!L19="","",_coal_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O23" s="16" t="str">
+      <c r="O23" s="8" t="str">
         <f>IF(_coal_day_hour!M19="","",_coal_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="29" t="str">
+      <c r="P23" s="13" t="str">
         <f>IF(_coal_day_hour!N19="","",_coal_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="29" t="str">
+      <c r="Q23" s="13" t="str">
         <f>IF(_coal_day_hour!O19="","",_coal_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="29" t="str">
+      <c r="R23" s="13" t="str">
         <f>IF(_coal_day_hour!P19="","",_coal_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="37" t="str">
+      <c r="S23" s="17" t="str">
         <f>IF(_coal_day_hour!Q19="","",_coal_day_hour!Q19)</f>
         <v/>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B24" s="15">
+    <row r="24" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
         <v>0.75</v>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="8" t="str">
         <f>IF(_coal_day_hour!A20="","",_coal_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="8" t="str">
         <f>IF(_coal_day_hour!B20="","",_coal_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E24" s="16" t="str">
+      <c r="E24" s="8" t="str">
         <f>IF(_coal_day_hour!C20="","",_coal_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F24" s="16" t="str">
+      <c r="F24" s="8" t="str">
         <f>IF(_coal_day_hour!D20="","",_coal_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G24" s="16" t="str">
+      <c r="G24" s="8" t="str">
         <f>IF(_coal_day_hour!E20="","",_coal_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H24" s="16" t="str">
+      <c r="H24" s="8" t="str">
         <f>IF(_coal_day_hour!F20="","",_coal_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I24" s="16" t="str">
+      <c r="I24" s="8" t="str">
         <f>IF(_coal_day_hour!G20="","",_coal_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J24" s="16" t="str">
+      <c r="J24" s="8" t="str">
         <f>IF(_coal_day_hour!H20="","",_coal_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K24" s="16" t="str">
+      <c r="K24" s="8" t="str">
         <f>IF(_coal_day_hour!I20="","",_coal_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L24" s="16" t="str">
+      <c r="L24" s="8" t="str">
         <f>IF(_coal_day_hour!J20="","",_coal_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M24" s="16" t="str">
+      <c r="M24" s="8" t="str">
         <f>IF(_coal_day_hour!K20="","",_coal_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N24" s="16" t="str">
+      <c r="N24" s="8" t="str">
         <f>IF(_coal_day_hour!L20="","",_coal_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O24" s="16" t="str">
+      <c r="O24" s="8" t="str">
         <f>IF(_coal_day_hour!M20="","",_coal_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="29" t="str">
+      <c r="P24" s="13" t="str">
         <f>IF(_coal_day_hour!N20="","",_coal_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="29" t="str">
+      <c r="Q24" s="13" t="str">
         <f>IF(_coal_day_hour!O20="","",_coal_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="29" t="str">
+      <c r="R24" s="13" t="str">
         <f>IF(_coal_day_hour!P20="","",_coal_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="37" t="str">
+      <c r="S24" s="17" t="str">
         <f>IF(_coal_day_hour!Q20="","",_coal_day_hour!Q20)</f>
         <v/>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B25" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C25" s="16" t="str">
+    <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C25" s="8" t="str">
         <f>IF(_coal_day_hour!A21="","",_coal_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" s="8" t="str">
         <f>IF(_coal_day_hour!B21="","",_coal_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E25" s="16" t="str">
+      <c r="E25" s="8" t="str">
         <f>IF(_coal_day_hour!C21="","",_coal_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F25" s="16" t="str">
+      <c r="F25" s="8" t="str">
         <f>IF(_coal_day_hour!D21="","",_coal_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G25" s="16" t="str">
+      <c r="G25" s="8" t="str">
         <f>IF(_coal_day_hour!E21="","",_coal_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H25" s="16" t="str">
+      <c r="H25" s="8" t="str">
         <f>IF(_coal_day_hour!F21="","",_coal_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I25" s="16" t="str">
+      <c r="I25" s="8" t="str">
         <f>IF(_coal_day_hour!G21="","",_coal_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J25" s="16" t="str">
+      <c r="J25" s="8" t="str">
         <f>IF(_coal_day_hour!H21="","",_coal_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K25" s="16" t="str">
+      <c r="K25" s="8" t="str">
         <f>IF(_coal_day_hour!I21="","",_coal_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L25" s="16" t="str">
+      <c r="L25" s="8" t="str">
         <f>IF(_coal_day_hour!J21="","",_coal_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M25" s="16" t="str">
+      <c r="M25" s="8" t="str">
         <f>IF(_coal_day_hour!K21="","",_coal_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N25" s="16" t="str">
+      <c r="N25" s="8" t="str">
         <f>IF(_coal_day_hour!L21="","",_coal_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O25" s="16" t="str">
+      <c r="O25" s="8" t="str">
         <f>IF(_coal_day_hour!M21="","",_coal_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="29" t="str">
+      <c r="P25" s="13" t="str">
         <f>IF(_coal_day_hour!N21="","",_coal_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="29" t="str">
+      <c r="Q25" s="13" t="str">
         <f>IF(_coal_day_hour!O21="","",_coal_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="29" t="str">
+      <c r="R25" s="13" t="str">
         <f>IF(_coal_day_hour!P21="","",_coal_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="37" t="str">
+      <c r="S25" s="17" t="str">
         <f>IF(_coal_day_hour!Q21="","",_coal_day_hour!Q21)</f>
         <v/>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B26" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C26" s="16" t="str">
+    <row r="26" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C26" s="8" t="str">
         <f>IF(_coal_day_hour!A22="","",_coal_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" s="8" t="str">
         <f>IF(_coal_day_hour!B22="","",_coal_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E26" s="16" t="str">
+      <c r="E26" s="8" t="str">
         <f>IF(_coal_day_hour!C22="","",_coal_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F26" s="16" t="str">
+      <c r="F26" s="8" t="str">
         <f>IF(_coal_day_hour!D22="","",_coal_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G26" s="16" t="str">
+      <c r="G26" s="8" t="str">
         <f>IF(_coal_day_hour!E22="","",_coal_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H26" s="16" t="str">
+      <c r="H26" s="8" t="str">
         <f>IF(_coal_day_hour!F22="","",_coal_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I26" s="16" t="str">
+      <c r="I26" s="8" t="str">
         <f>IF(_coal_day_hour!G22="","",_coal_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J26" s="16" t="str">
+      <c r="J26" s="8" t="str">
         <f>IF(_coal_day_hour!H22="","",_coal_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K26" s="16" t="str">
+      <c r="K26" s="8" t="str">
         <f>IF(_coal_day_hour!I22="","",_coal_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L26" s="16" t="str">
+      <c r="L26" s="8" t="str">
         <f>IF(_coal_day_hour!J22="","",_coal_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M26" s="16" t="str">
+      <c r="M26" s="8" t="str">
         <f>IF(_coal_day_hour!K22="","",_coal_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N26" s="16" t="str">
+      <c r="N26" s="8" t="str">
         <f>IF(_coal_day_hour!L22="","",_coal_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O26" s="16" t="str">
+      <c r="O26" s="8" t="str">
         <f>IF(_coal_day_hour!M22="","",_coal_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="29" t="str">
+      <c r="P26" s="13" t="str">
         <f>IF(_coal_day_hour!N22="","",_coal_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="29" t="str">
+      <c r="Q26" s="13" t="str">
         <f>IF(_coal_day_hour!O22="","",_coal_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="29" t="str">
+      <c r="R26" s="13" t="str">
         <f>IF(_coal_day_hour!P22="","",_coal_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="37" t="str">
+      <c r="S26" s="17" t="str">
         <f>IF(_coal_day_hour!Q22="","",_coal_day_hour!Q22)</f>
         <v/>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B27" s="15">
+    <row r="27" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
         <v>0.875</v>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="8" t="str">
         <f>IF(_coal_day_hour!A23="","",_coal_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D27" s="16" t="str">
+      <c r="D27" s="8" t="str">
         <f>IF(_coal_day_hour!B23="","",_coal_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E27" s="16" t="str">
+      <c r="E27" s="8" t="str">
         <f>IF(_coal_day_hour!C23="","",_coal_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F27" s="16" t="str">
+      <c r="F27" s="8" t="str">
         <f>IF(_coal_day_hour!D23="","",_coal_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G27" s="16" t="str">
+      <c r="G27" s="8" t="str">
         <f>IF(_coal_day_hour!E23="","",_coal_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H27" s="16" t="str">
+      <c r="H27" s="8" t="str">
         <f>IF(_coal_day_hour!F23="","",_coal_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="8" t="str">
         <f>IF(_coal_day_hour!G23="","",_coal_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J27" s="16" t="str">
+      <c r="J27" s="8" t="str">
         <f>IF(_coal_day_hour!H23="","",_coal_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K27" s="16" t="str">
+      <c r="K27" s="8" t="str">
         <f>IF(_coal_day_hour!I23="","",_coal_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L27" s="16" t="str">
+      <c r="L27" s="8" t="str">
         <f>IF(_coal_day_hour!J23="","",_coal_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M27" s="16" t="str">
+      <c r="M27" s="8" t="str">
         <f>IF(_coal_day_hour!K23="","",_coal_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N27" s="16" t="str">
+      <c r="N27" s="8" t="str">
         <f>IF(_coal_day_hour!L23="","",_coal_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O27" s="16" t="str">
+      <c r="O27" s="8" t="str">
         <f>IF(_coal_day_hour!M23="","",_coal_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="29" t="str">
+      <c r="P27" s="13" t="str">
         <f>IF(_coal_day_hour!N23="","",_coal_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="29" t="str">
+      <c r="Q27" s="13" t="str">
         <f>IF(_coal_day_hour!O23="","",_coal_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="29" t="str">
+      <c r="R27" s="13" t="str">
         <f>IF(_coal_day_hour!P23="","",_coal_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="37" t="str">
+      <c r="S27" s="17" t="str">
         <f>IF(_coal_day_hour!Q23="","",_coal_day_hour!Q23)</f>
         <v/>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B28" s="15">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C28" s="16" t="str">
+    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C28" s="8" t="str">
         <f>IF(_coal_day_hour!A24="","",_coal_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D28" s="16" t="str">
+      <c r="D28" s="8" t="str">
         <f>IF(_coal_day_hour!B24="","",_coal_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E28" s="16" t="str">
+      <c r="E28" s="8" t="str">
         <f>IF(_coal_day_hour!C24="","",_coal_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F28" s="16" t="str">
+      <c r="F28" s="8" t="str">
         <f>IF(_coal_day_hour!D24="","",_coal_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G28" s="16" t="str">
+      <c r="G28" s="8" t="str">
         <f>IF(_coal_day_hour!E24="","",_coal_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H28" s="16" t="str">
+      <c r="H28" s="8" t="str">
         <f>IF(_coal_day_hour!F24="","",_coal_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I28" s="16" t="str">
+      <c r="I28" s="8" t="str">
         <f>IF(_coal_day_hour!G24="","",_coal_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J28" s="16" t="str">
+      <c r="J28" s="8" t="str">
         <f>IF(_coal_day_hour!H24="","",_coal_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K28" s="16" t="str">
+      <c r="K28" s="8" t="str">
         <f>IF(_coal_day_hour!I24="","",_coal_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L28" s="16" t="str">
+      <c r="L28" s="8" t="str">
         <f>IF(_coal_day_hour!J24="","",_coal_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M28" s="16" t="str">
+      <c r="M28" s="8" t="str">
         <f>IF(_coal_day_hour!K24="","",_coal_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N28" s="16" t="str">
+      <c r="N28" s="8" t="str">
         <f>IF(_coal_day_hour!L24="","",_coal_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O28" s="16" t="str">
+      <c r="O28" s="8" t="str">
         <f>IF(_coal_day_hour!M24="","",_coal_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="29" t="str">
+      <c r="P28" s="13" t="str">
         <f>IF(_coal_day_hour!N24="","",_coal_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="29" t="str">
+      <c r="Q28" s="13" t="str">
         <f>IF(_coal_day_hour!O24="","",_coal_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="29" t="str">
+      <c r="R28" s="13" t="str">
         <f>IF(_coal_day_hour!P24="","",_coal_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="37" t="str">
+      <c r="S28" s="17" t="str">
         <f>IF(_coal_day_hour!Q24="","",_coal_day_hour!Q24)</f>
         <v/>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B29" s="15">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C29" s="16" t="str">
+    <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C29" s="8" t="str">
         <f>IF(_coal_day_hour!A25="","",_coal_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D29" s="16" t="str">
+      <c r="D29" s="8" t="str">
         <f>IF(_coal_day_hour!B25="","",_coal_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E29" s="16" t="str">
+      <c r="E29" s="8" t="str">
         <f>IF(_coal_day_hour!C25="","",_coal_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F29" s="16" t="str">
+      <c r="F29" s="8" t="str">
         <f>IF(_coal_day_hour!D25="","",_coal_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G29" s="16" t="str">
+      <c r="G29" s="8" t="str">
         <f>IF(_coal_day_hour!E25="","",_coal_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H29" s="16" t="str">
+      <c r="H29" s="8" t="str">
         <f>IF(_coal_day_hour!F25="","",_coal_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I29" s="16" t="str">
+      <c r="I29" s="8" t="str">
         <f>IF(_coal_day_hour!G25="","",_coal_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J29" s="16" t="str">
+      <c r="J29" s="8" t="str">
         <f>IF(_coal_day_hour!H25="","",_coal_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K29" s="16" t="str">
+      <c r="K29" s="8" t="str">
         <f>IF(_coal_day_hour!I25="","",_coal_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L29" s="16" t="str">
+      <c r="L29" s="8" t="str">
         <f>IF(_coal_day_hour!J25="","",_coal_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M29" s="16" t="str">
+      <c r="M29" s="8" t="str">
         <f>IF(_coal_day_hour!K25="","",_coal_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N29" s="16" t="str">
+      <c r="N29" s="8" t="str">
         <f>IF(_coal_day_hour!L25="","",_coal_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O29" s="16" t="str">
+      <c r="O29" s="8" t="str">
         <f>IF(_coal_day_hour!M25="","",_coal_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="29" t="str">
+      <c r="P29" s="13" t="str">
         <f>IF(_coal_day_hour!N25="","",_coal_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="29" t="str">
+      <c r="Q29" s="13" t="str">
         <f>IF(_coal_day_hour!O25="","",_coal_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="29" t="str">
+      <c r="R29" s="13" t="str">
         <f>IF(_coal_day_hour!P25="","",_coal_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="37" t="str">
+      <c r="S29" s="17" t="str">
         <f>IF(_coal_day_hour!Q25="","",_coal_day_hour!Q25)</f>
         <v/>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B30" s="17" t="s">
+    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="37"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="17"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B31" s="17" t="s">
+    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="37"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="17"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="15.6" customHeight="1" spans="2:19">
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="37"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="17"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="16.5" spans="2:19">
-      <c r="B33" s="19" t="s">
+    <row r="33" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="38"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="18"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="71.45" customHeight="1" spans="2:19">
-      <c r="B34" s="20" t="s">
+    <row r="34" spans="2:19" ht="71.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="20" t="s">
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="20" t="s">
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="22"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="26"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
-      <c r="B35" s="23" t="s">
+    <row r="35" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="23" t="s">
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="23" t="s">
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="25"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="29"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="22.5" customHeight="1"/>
-    <row r="40" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="41" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="46" s="1" customFormat="1" ht="15.6" customHeight="1"/>
-    <row r="53" s="1" customFormat="1" ht="44.1" customHeight="1"/>
-    <row r="59" s="1" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="65" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="70" s="1" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="90" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="96" s="1" customFormat="1" ht="30" customHeight="1"/>
-    <row r="104" s="1" customFormat="1" ht="36.95" customHeight="1"/>
+    <row r="37" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="44.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="41.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:S34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:S35"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="P2:S2"/>
@@ -4561,12 +3947,6 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:P3"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:S34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:S35"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -4575,27 +3955,27 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="63" spans="1:17">
+    <row r="1" spans="1:17" ht="63" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -4649,23 +4029,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-装煤除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-装煤除尘报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="2.出焦除尘" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>6&amp;7#焦 装煤除尘</t>
   </si>
@@ -25,7 +25,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                                                                                                                                         </t>
     </r>
@@ -41,7 +41,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -57,7 +57,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -73,7 +73,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                                                                                           SGSSG-BSMCSA35-G006-03A</t>
     </r>
@@ -110,7 +110,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>A</t>
     </r>
@@ -137,7 +137,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>A</t>
     </r>
@@ -168,7 +168,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>m</t>
     </r>
@@ -177,7 +177,7 @@
         <vertAlign val="superscript"/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -185,7 +185,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>/h</t>
     </r>
@@ -211,7 +211,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  
 </t>
@@ -238,7 +238,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">       
 </t>
@@ -255,7 +255,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>mm/s</t>
     </r>
@@ -294,7 +294,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Kpa</t>
     </r>
@@ -320,7 +320,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
@@ -337,7 +337,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Mpa</t>
     </r>
@@ -355,7 +355,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1
 </t>
@@ -374,7 +374,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2
 </t>
@@ -393,7 +393,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -411,7 +411,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1A
 </t>
@@ -430,7 +430,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2A
 </t>
@@ -449,7 +449,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1B
 </t>
@@ -468,7 +468,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2B
 </t>
@@ -553,7 +553,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -578,7 +578,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -588,7 +588,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -613,7 +613,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -623,7 +623,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -648,7 +648,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -658,7 +658,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -674,7 +674,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -691,8 +691,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,12 +714,12 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="22"/>
@@ -726,10 +732,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -738,10 +749,154 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -759,14 +914,8 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,8 +928,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1015,6 +1350,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1053,9 +1397,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
@@ -1065,111 +1651,158 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1180,7 +1813,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1194,14 +1827,14 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13271500" y="7783195"/>
+          <a:off x="13271500" y="7821295"/>
           <a:ext cx="4516120" cy="870585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1386,14 +2019,14 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14585950" y="7573645"/>
+          <a:off x="14585950" y="7611745"/>
           <a:ext cx="4516120" cy="2661285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1820,19 +2453,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="13" width="8.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
@@ -1840,99 +2473,99 @@
     <col min="257" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="27" x14ac:dyDescent="0.15">
-      <c r="B1" s="19" t="s">
+    <row r="1" ht="27" spans="2:19">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
     </row>
-    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+    <row r="2" ht="19.5" spans="2:19">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="38">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="26">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="20" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
     </row>
-    <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="30" t="s">
+    <row r="3" ht="15.75" spans="2:19">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="32" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="21" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="32" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="36.75" x14ac:dyDescent="0.15">
-      <c r="B4" s="31"/>
+    <row r="4" ht="36.75" spans="2:19">
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1948,9 +2581,9 @@
       <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1969,12 +2602,12 @@
       <c r="P4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="37"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="34"/>
     </row>
-    <row r="5" spans="2:19" ht="78.75" x14ac:dyDescent="0.15">
-      <c r="B5" s="6" t="s">
+    <row r="5" ht="78.75" spans="2:19">
+      <c r="B5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2029,8 +2662,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7">
+    <row r="6" ht="15" customHeight="1" spans="2:19">
+      <c r="B6" s="15">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="str">
@@ -2057,7 +2690,7 @@
         <f>IF(_coal_day_hour!F2="","",_coal_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="12" t="str">
+      <c r="I6" s="28" t="str">
         <f>IF(_coal_day_hour!G2="","",_coal_day_hour!G2)</f>
         <v/>
       </c>
@@ -2093,7 +2726,7 @@
         <f>IF(_coal_day_hour!O2="","",_coal_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="15" t="str">
+      <c r="R6" s="35" t="str">
         <f>IF(_coal_day_hour!P2="","",_coal_day_hour!P2)</f>
         <v/>
       </c>
@@ -2102,9 +2735,9 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="7">
-        <v>4.1666666666666699E-2</v>
+    <row r="7" ht="15.75" spans="2:19">
+      <c r="B7" s="15">
+        <v>0.0416666666666667</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>IF(_coal_day_hour!A3="","",_coal_day_hour!A3)</f>
@@ -2130,7 +2763,7 @@
         <f>IF(_coal_day_hour!F3="","",_coal_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="12" t="str">
+      <c r="I7" s="28" t="str">
         <f>IF(_coal_day_hour!G3="","",_coal_day_hour!G3)</f>
         <v/>
       </c>
@@ -2166,7 +2799,7 @@
         <f>IF(_coal_day_hour!O3="","",_coal_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="16" t="str">
+      <c r="R7" s="36" t="str">
         <f>IF(_coal_day_hour!P3="","",_coal_day_hour!P3)</f>
         <v/>
       </c>
@@ -2175,9 +2808,9 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="7">
-        <v>8.3333333333333301E-2</v>
+    <row r="8" ht="15.75" spans="2:19">
+      <c r="B8" s="15">
+        <v>0.0833333333333333</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>IF(_coal_day_hour!A4="","",_coal_day_hour!A4)</f>
@@ -2203,7 +2836,7 @@
         <f>IF(_coal_day_hour!F4="","",_coal_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I8" s="12" t="str">
+      <c r="I8" s="28" t="str">
         <f>IF(_coal_day_hour!G4="","",_coal_day_hour!G4)</f>
         <v/>
       </c>
@@ -2248,8 +2881,8 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="7">
+    <row r="9" ht="15.75" spans="2:19">
+      <c r="B9" s="15">
         <v>0.125</v>
       </c>
       <c r="C9" s="2" t="str">
@@ -2276,7 +2909,7 @@
         <f>IF(_coal_day_hour!F5="","",_coal_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="12" t="str">
+      <c r="I9" s="28" t="str">
         <f>IF(_coal_day_hour!G5="","",_coal_day_hour!G5)</f>
         <v/>
       </c>
@@ -2321,9 +2954,9 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="7">
-        <v>0.16666666666666699</v>
+    <row r="10" ht="15.75" spans="2:19">
+      <c r="B10" s="15">
+        <v>0.166666666666667</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>IF(_coal_day_hour!A6="","",_coal_day_hour!A6)</f>
@@ -2349,7 +2982,7 @@
         <f>IF(_coal_day_hour!F6="","",_coal_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I10" s="12" t="str">
+      <c r="I10" s="28" t="str">
         <f>IF(_coal_day_hour!G6="","",_coal_day_hour!G6)</f>
         <v/>
       </c>
@@ -2394,9 +3027,9 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="7">
-        <v>0.20833333333333301</v>
+    <row r="11" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B11" s="15">
+        <v>0.208333333333333</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>IF(_coal_day_hour!A7="","",_coal_day_hour!A7)</f>
@@ -2422,7 +3055,7 @@
         <f>IF(_coal_day_hour!F7="","",_coal_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I11" s="12" t="str">
+      <c r="I11" s="28" t="str">
         <f>IF(_coal_day_hour!G7="","",_coal_day_hour!G7)</f>
         <v/>
       </c>
@@ -2467,8 +3100,8 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="7">
+    <row r="12" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B12" s="15">
         <v>0.25</v>
       </c>
       <c r="C12" s="2" t="str">
@@ -2495,7 +3128,7 @@
         <f>IF(_coal_day_hour!F8="","",_coal_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I12" s="12" t="str">
+      <c r="I12" s="28" t="str">
         <f>IF(_coal_day_hour!G8="","",_coal_day_hour!G8)</f>
         <v/>
       </c>
@@ -2540,9 +3173,9 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="7">
-        <v>0.29166666666666702</v>
+    <row r="13" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B13" s="15">
+        <v>0.291666666666667</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>IF(_coal_day_hour!A9="","",_coal_day_hour!A9)</f>
@@ -2568,7 +3201,7 @@
         <f>IF(_coal_day_hour!F9="","",_coal_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I13" s="12" t="str">
+      <c r="I13" s="28" t="str">
         <f>IF(_coal_day_hour!G9="","",_coal_day_hour!G9)</f>
         <v/>
       </c>
@@ -2613,9 +3246,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="7">
-        <v>0.33333333333333298</v>
+    <row r="14" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B14" s="15">
+        <v>0.333333333333333</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>IF(_coal_day_hour!A10="","",_coal_day_hour!A10)</f>
@@ -2641,7 +3274,7 @@
         <f>IF(_coal_day_hour!F10="","",_coal_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="12" t="str">
+      <c r="I14" s="28" t="str">
         <f>IF(_coal_day_hour!G10="","",_coal_day_hour!G10)</f>
         <v/>
       </c>
@@ -2686,8 +3319,8 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="7">
+    <row r="15" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B15" s="15">
         <v>0.375</v>
       </c>
       <c r="C15" s="2" t="str">
@@ -2714,7 +3347,7 @@
         <f>IF(_coal_day_hour!F11="","",_coal_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I15" s="12" t="str">
+      <c r="I15" s="28" t="str">
         <f>IF(_coal_day_hour!G11="","",_coal_day_hour!G11)</f>
         <v/>
       </c>
@@ -2759,9 +3392,9 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="7">
-        <v>0.41666666666666702</v>
+    <row r="16" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B16" s="15">
+        <v>0.416666666666667</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(_coal_day_hour!A12="","",_coal_day_hour!A12)</f>
@@ -2787,7 +3420,7 @@
         <f>IF(_coal_day_hour!F12="","",_coal_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I16" s="12" t="str">
+      <c r="I16" s="28" t="str">
         <f>IF(_coal_day_hour!G12="","",_coal_day_hour!G12)</f>
         <v/>
       </c>
@@ -2832,9 +3465,9 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="7">
-        <v>0.45833333333333298</v>
+    <row r="17" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B17" s="15">
+        <v>0.458333333333333</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>IF(_coal_day_hour!A13="","",_coal_day_hour!A13)</f>
@@ -2860,7 +3493,7 @@
         <f>IF(_coal_day_hour!F13="","",_coal_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I17" s="12" t="str">
+      <c r="I17" s="28" t="str">
         <f>IF(_coal_day_hour!G13="","",_coal_day_hour!G13)</f>
         <v/>
       </c>
@@ -2905,1041 +3538,1035 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
+    <row r="18" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B18" s="15">
         <v>0.5</v>
       </c>
-      <c r="C18" s="8" t="str">
+      <c r="C18" s="16" t="str">
         <f>IF(_coal_day_hour!A14="","",_coal_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D18" s="8" t="str">
+      <c r="D18" s="16" t="str">
         <f>IF(_coal_day_hour!B14="","",_coal_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E18" s="8" t="str">
+      <c r="E18" s="16" t="str">
         <f>IF(_coal_day_hour!C14="","",_coal_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F18" s="8" t="str">
+      <c r="F18" s="16" t="str">
         <f>IF(_coal_day_hour!D14="","",_coal_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G18" s="8" t="str">
+      <c r="G18" s="16" t="str">
         <f>IF(_coal_day_hour!E14="","",_coal_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H18" s="8" t="str">
+      <c r="H18" s="16" t="str">
         <f>IF(_coal_day_hour!F14="","",_coal_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I18" s="8" t="str">
+      <c r="I18" s="16" t="str">
         <f>IF(_coal_day_hour!G14="","",_coal_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J18" s="8" t="str">
+      <c r="J18" s="16" t="str">
         <f>IF(_coal_day_hour!H14="","",_coal_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K18" s="8" t="str">
+      <c r="K18" s="16" t="str">
         <f>IF(_coal_day_hour!I14="","",_coal_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L18" s="8" t="str">
+      <c r="L18" s="16" t="str">
         <f>IF(_coal_day_hour!J14="","",_coal_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M18" s="8" t="str">
+      <c r="M18" s="16" t="str">
         <f>IF(_coal_day_hour!K14="","",_coal_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N18" s="8" t="str">
+      <c r="N18" s="16" t="str">
         <f>IF(_coal_day_hour!L14="","",_coal_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O18" s="8" t="str">
+      <c r="O18" s="16" t="str">
         <f>IF(_coal_day_hour!M14="","",_coal_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="13" t="str">
+      <c r="P18" s="29" t="str">
         <f>IF(_coal_day_hour!N14="","",_coal_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="13" t="str">
+      <c r="Q18" s="29" t="str">
         <f>IF(_coal_day_hour!O14="","",_coal_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="15" t="str">
+      <c r="R18" s="35" t="str">
         <f>IF(_coal_day_hour!P14="","",_coal_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="17" t="str">
+      <c r="S18" s="37" t="str">
         <f>IF(_coal_day_hour!Q14="","",_coal_day_hour!Q14)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="C19" s="8" t="str">
+    <row r="19" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B19" s="15">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C19" s="16" t="str">
         <f>IF(_coal_day_hour!A15="","",_coal_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D19" s="8" t="str">
+      <c r="D19" s="16" t="str">
         <f>IF(_coal_day_hour!B15="","",_coal_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="16" t="str">
         <f>IF(_coal_day_hour!C15="","",_coal_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F19" s="8" t="str">
+      <c r="F19" s="16" t="str">
         <f>IF(_coal_day_hour!D15="","",_coal_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G19" s="8" t="str">
+      <c r="G19" s="16" t="str">
         <f>IF(_coal_day_hour!E15="","",_coal_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H19" s="8" t="str">
+      <c r="H19" s="16" t="str">
         <f>IF(_coal_day_hour!F15="","",_coal_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I19" s="8" t="str">
+      <c r="I19" s="16" t="str">
         <f>IF(_coal_day_hour!G15="","",_coal_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J19" s="8" t="str">
+      <c r="J19" s="16" t="str">
         <f>IF(_coal_day_hour!H15="","",_coal_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K19" s="8" t="str">
+      <c r="K19" s="16" t="str">
         <f>IF(_coal_day_hour!I15="","",_coal_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L19" s="8" t="str">
+      <c r="L19" s="16" t="str">
         <f>IF(_coal_day_hour!J15="","",_coal_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M19" s="8" t="str">
+      <c r="M19" s="16" t="str">
         <f>IF(_coal_day_hour!K15="","",_coal_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N19" s="8" t="str">
+      <c r="N19" s="16" t="str">
         <f>IF(_coal_day_hour!L15="","",_coal_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O19" s="8" t="str">
+      <c r="O19" s="16" t="str">
         <f>IF(_coal_day_hour!M15="","",_coal_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="13" t="str">
+      <c r="P19" s="29" t="str">
         <f>IF(_coal_day_hour!N15="","",_coal_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="13" t="str">
+      <c r="Q19" s="29" t="str">
         <f>IF(_coal_day_hour!O15="","",_coal_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="16" t="str">
+      <c r="R19" s="36" t="str">
         <f>IF(_coal_day_hour!P15="","",_coal_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="17" t="str">
+      <c r="S19" s="37" t="str">
         <f>IF(_coal_day_hour!Q15="","",_coal_day_hour!Q15)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C20" s="8" t="str">
+    <row r="20" ht="15.95" customHeight="1" spans="2:19">
+      <c r="B20" s="15">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C20" s="16" t="str">
         <f>IF(_coal_day_hour!A16="","",_coal_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D20" s="8" t="str">
+      <c r="D20" s="16" t="str">
         <f>IF(_coal_day_hour!B16="","",_coal_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E20" s="8" t="str">
+      <c r="E20" s="16" t="str">
         <f>IF(_coal_day_hour!C16="","",_coal_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F20" s="8" t="str">
+      <c r="F20" s="16" t="str">
         <f>IF(_coal_day_hour!D16="","",_coal_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G20" s="8" t="str">
+      <c r="G20" s="16" t="str">
         <f>IF(_coal_day_hour!E16="","",_coal_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H20" s="8" t="str">
+      <c r="H20" s="16" t="str">
         <f>IF(_coal_day_hour!F16="","",_coal_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I20" s="8" t="str">
+      <c r="I20" s="16" t="str">
         <f>IF(_coal_day_hour!G16="","",_coal_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J20" s="8" t="str">
+      <c r="J20" s="16" t="str">
         <f>IF(_coal_day_hour!H16="","",_coal_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K20" s="8" t="str">
+      <c r="K20" s="16" t="str">
         <f>IF(_coal_day_hour!I16="","",_coal_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L20" s="8" t="str">
+      <c r="L20" s="16" t="str">
         <f>IF(_coal_day_hour!J16="","",_coal_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M20" s="8" t="str">
+      <c r="M20" s="16" t="str">
         <f>IF(_coal_day_hour!K16="","",_coal_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N20" s="8" t="str">
+      <c r="N20" s="16" t="str">
         <f>IF(_coal_day_hour!L16="","",_coal_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O20" s="8" t="str">
+      <c r="O20" s="16" t="str">
         <f>IF(_coal_day_hour!M16="","",_coal_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="13" t="str">
+      <c r="P20" s="29" t="str">
         <f>IF(_coal_day_hour!N16="","",_coal_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="13" t="str">
+      <c r="Q20" s="29" t="str">
         <f>IF(_coal_day_hour!O16="","",_coal_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="13" t="str">
+      <c r="R20" s="29" t="str">
         <f>IF(_coal_day_hour!P16="","",_coal_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="17" t="str">
+      <c r="S20" s="37" t="str">
         <f>IF(_coal_day_hour!Q16="","",_coal_day_hour!Q16)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
+    <row r="21" ht="15.6" customHeight="1" spans="2:19">
+      <c r="B21" s="15">
         <v>0.625</v>
       </c>
-      <c r="C21" s="8" t="str">
+      <c r="C21" s="16" t="str">
         <f>IF(_coal_day_hour!A17="","",_coal_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D21" s="8" t="str">
+      <c r="D21" s="16" t="str">
         <f>IF(_coal_day_hour!B17="","",_coal_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E21" s="8" t="str">
+      <c r="E21" s="16" t="str">
         <f>IF(_coal_day_hour!C17="","",_coal_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F21" s="8" t="str">
+      <c r="F21" s="16" t="str">
         <f>IF(_coal_day_hour!D17="","",_coal_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G21" s="8" t="str">
+      <c r="G21" s="16" t="str">
         <f>IF(_coal_day_hour!E17="","",_coal_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H21" s="8" t="str">
+      <c r="H21" s="16" t="str">
         <f>IF(_coal_day_hour!F17="","",_coal_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I21" s="8" t="str">
+      <c r="I21" s="16" t="str">
         <f>IF(_coal_day_hour!G17="","",_coal_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J21" s="8" t="str">
+      <c r="J21" s="16" t="str">
         <f>IF(_coal_day_hour!H17="","",_coal_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K21" s="8" t="str">
+      <c r="K21" s="16" t="str">
         <f>IF(_coal_day_hour!I17="","",_coal_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L21" s="8" t="str">
+      <c r="L21" s="16" t="str">
         <f>IF(_coal_day_hour!J17="","",_coal_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M21" s="8" t="str">
+      <c r="M21" s="16" t="str">
         <f>IF(_coal_day_hour!K17="","",_coal_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N21" s="8" t="str">
+      <c r="N21" s="16" t="str">
         <f>IF(_coal_day_hour!L17="","",_coal_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O21" s="8" t="str">
+      <c r="O21" s="16" t="str">
         <f>IF(_coal_day_hour!M17="","",_coal_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="13" t="str">
+      <c r="P21" s="29" t="str">
         <f>IF(_coal_day_hour!N17="","",_coal_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="13" t="str">
+      <c r="Q21" s="29" t="str">
         <f>IF(_coal_day_hour!O17="","",_coal_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="13" t="str">
+      <c r="R21" s="29" t="str">
         <f>IF(_coal_day_hour!P17="","",_coal_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="17" t="str">
+      <c r="S21" s="37" t="str">
         <f>IF(_coal_day_hour!Q17="","",_coal_day_hour!Q17)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C22" s="8" t="str">
+    <row r="22" ht="15" customHeight="1" spans="2:19">
+      <c r="B22" s="15">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C22" s="16" t="str">
         <f>IF(_coal_day_hour!A18="","",_coal_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="8" t="str">
+      <c r="D22" s="16" t="str">
         <f>IF(_coal_day_hour!B18="","",_coal_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="8" t="str">
+      <c r="E22" s="16" t="str">
         <f>IF(_coal_day_hour!C18="","",_coal_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="8" t="str">
+      <c r="F22" s="16" t="str">
         <f>IF(_coal_day_hour!D18="","",_coal_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="8" t="str">
+      <c r="G22" s="16" t="str">
         <f>IF(_coal_day_hour!E18="","",_coal_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="8" t="str">
+      <c r="H22" s="16" t="str">
         <f>IF(_coal_day_hour!F18="","",_coal_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="8" t="str">
+      <c r="I22" s="16" t="str">
         <f>IF(_coal_day_hour!G18="","",_coal_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="8" t="str">
+      <c r="J22" s="16" t="str">
         <f>IF(_coal_day_hour!H18="","",_coal_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="8" t="str">
+      <c r="K22" s="16" t="str">
         <f>IF(_coal_day_hour!I18="","",_coal_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="8" t="str">
+      <c r="L22" s="16" t="str">
         <f>IF(_coal_day_hour!J18="","",_coal_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="8" t="str">
+      <c r="M22" s="16" t="str">
         <f>IF(_coal_day_hour!K18="","",_coal_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="8" t="str">
+      <c r="N22" s="16" t="str">
         <f>IF(_coal_day_hour!L18="","",_coal_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="8" t="str">
+      <c r="O22" s="16" t="str">
         <f>IF(_coal_day_hour!M18="","",_coal_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="13" t="str">
+      <c r="P22" s="29" t="str">
         <f>IF(_coal_day_hour!N18="","",_coal_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="13" t="str">
+      <c r="Q22" s="29" t="str">
         <f>IF(_coal_day_hour!O18="","",_coal_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="13" t="str">
+      <c r="R22" s="29" t="str">
         <f>IF(_coal_day_hour!P18="","",_coal_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="17" t="str">
+      <c r="S22" s="37" t="str">
         <f>IF(_coal_day_hour!Q18="","",_coal_day_hour!Q18)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C23" s="8" t="str">
+    <row r="23" ht="15" customHeight="1" spans="2:19">
+      <c r="B23" s="15">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C23" s="16" t="str">
         <f>IF(_coal_day_hour!A19="","",_coal_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D23" s="8" t="str">
+      <c r="D23" s="16" t="str">
         <f>IF(_coal_day_hour!B19="","",_coal_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E23" s="8" t="str">
+      <c r="E23" s="16" t="str">
         <f>IF(_coal_day_hour!C19="","",_coal_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F23" s="8" t="str">
+      <c r="F23" s="16" t="str">
         <f>IF(_coal_day_hour!D19="","",_coal_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G23" s="8" t="str">
+      <c r="G23" s="16" t="str">
         <f>IF(_coal_day_hour!E19="","",_coal_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H23" s="8" t="str">
+      <c r="H23" s="16" t="str">
         <f>IF(_coal_day_hour!F19="","",_coal_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I23" s="8" t="str">
+      <c r="I23" s="16" t="str">
         <f>IF(_coal_day_hour!G19="","",_coal_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J23" s="8" t="str">
+      <c r="J23" s="16" t="str">
         <f>IF(_coal_day_hour!H19="","",_coal_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K23" s="8" t="str">
+      <c r="K23" s="16" t="str">
         <f>IF(_coal_day_hour!I19="","",_coal_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L23" s="8" t="str">
+      <c r="L23" s="16" t="str">
         <f>IF(_coal_day_hour!J19="","",_coal_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M23" s="8" t="str">
+      <c r="M23" s="16" t="str">
         <f>IF(_coal_day_hour!K19="","",_coal_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N23" s="8" t="str">
+      <c r="N23" s="16" t="str">
         <f>IF(_coal_day_hour!L19="","",_coal_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O23" s="8" t="str">
+      <c r="O23" s="16" t="str">
         <f>IF(_coal_day_hour!M19="","",_coal_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="13" t="str">
+      <c r="P23" s="29" t="str">
         <f>IF(_coal_day_hour!N19="","",_coal_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="13" t="str">
+      <c r="Q23" s="29" t="str">
         <f>IF(_coal_day_hour!O19="","",_coal_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="13" t="str">
+      <c r="R23" s="29" t="str">
         <f>IF(_coal_day_hour!P19="","",_coal_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="17" t="str">
+      <c r="S23" s="37" t="str">
         <f>IF(_coal_day_hour!Q19="","",_coal_day_hour!Q19)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
+    <row r="24" ht="15" customHeight="1" spans="2:19">
+      <c r="B24" s="15">
         <v>0.75</v>
       </c>
-      <c r="C24" s="8" t="str">
+      <c r="C24" s="16" t="str">
         <f>IF(_coal_day_hour!A20="","",_coal_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D24" s="8" t="str">
+      <c r="D24" s="16" t="str">
         <f>IF(_coal_day_hour!B20="","",_coal_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E24" s="8" t="str">
+      <c r="E24" s="16" t="str">
         <f>IF(_coal_day_hour!C20="","",_coal_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F24" s="8" t="str">
+      <c r="F24" s="16" t="str">
         <f>IF(_coal_day_hour!D20="","",_coal_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G24" s="8" t="str">
+      <c r="G24" s="16" t="str">
         <f>IF(_coal_day_hour!E20="","",_coal_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H24" s="8" t="str">
+      <c r="H24" s="16" t="str">
         <f>IF(_coal_day_hour!F20="","",_coal_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I24" s="8" t="str">
+      <c r="I24" s="16" t="str">
         <f>IF(_coal_day_hour!G20="","",_coal_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J24" s="8" t="str">
+      <c r="J24" s="16" t="str">
         <f>IF(_coal_day_hour!H20="","",_coal_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K24" s="8" t="str">
+      <c r="K24" s="16" t="str">
         <f>IF(_coal_day_hour!I20="","",_coal_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L24" s="8" t="str">
+      <c r="L24" s="16" t="str">
         <f>IF(_coal_day_hour!J20="","",_coal_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M24" s="8" t="str">
+      <c r="M24" s="16" t="str">
         <f>IF(_coal_day_hour!K20="","",_coal_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N24" s="8" t="str">
+      <c r="N24" s="16" t="str">
         <f>IF(_coal_day_hour!L20="","",_coal_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O24" s="8" t="str">
+      <c r="O24" s="16" t="str">
         <f>IF(_coal_day_hour!M20="","",_coal_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="13" t="str">
+      <c r="P24" s="29" t="str">
         <f>IF(_coal_day_hour!N20="","",_coal_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="13" t="str">
+      <c r="Q24" s="29" t="str">
         <f>IF(_coal_day_hour!O20="","",_coal_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="13" t="str">
+      <c r="R24" s="29" t="str">
         <f>IF(_coal_day_hour!P20="","",_coal_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="17" t="str">
+      <c r="S24" s="37" t="str">
         <f>IF(_coal_day_hour!Q20="","",_coal_day_hour!Q20)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C25" s="8" t="str">
+    <row r="25" ht="15" customHeight="1" spans="2:19">
+      <c r="B25" s="15">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C25" s="16" t="str">
         <f>IF(_coal_day_hour!A21="","",_coal_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D25" s="8" t="str">
+      <c r="D25" s="16" t="str">
         <f>IF(_coal_day_hour!B21="","",_coal_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E25" s="8" t="str">
+      <c r="E25" s="16" t="str">
         <f>IF(_coal_day_hour!C21="","",_coal_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F25" s="8" t="str">
+      <c r="F25" s="16" t="str">
         <f>IF(_coal_day_hour!D21="","",_coal_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G25" s="8" t="str">
+      <c r="G25" s="16" t="str">
         <f>IF(_coal_day_hour!E21="","",_coal_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H25" s="8" t="str">
+      <c r="H25" s="16" t="str">
         <f>IF(_coal_day_hour!F21="","",_coal_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I25" s="8" t="str">
+      <c r="I25" s="16" t="str">
         <f>IF(_coal_day_hour!G21="","",_coal_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J25" s="8" t="str">
+      <c r="J25" s="16" t="str">
         <f>IF(_coal_day_hour!H21="","",_coal_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K25" s="8" t="str">
+      <c r="K25" s="16" t="str">
         <f>IF(_coal_day_hour!I21="","",_coal_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L25" s="8" t="str">
+      <c r="L25" s="16" t="str">
         <f>IF(_coal_day_hour!J21="","",_coal_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M25" s="8" t="str">
+      <c r="M25" s="16" t="str">
         <f>IF(_coal_day_hour!K21="","",_coal_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N25" s="8" t="str">
+      <c r="N25" s="16" t="str">
         <f>IF(_coal_day_hour!L21="","",_coal_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O25" s="8" t="str">
+      <c r="O25" s="16" t="str">
         <f>IF(_coal_day_hour!M21="","",_coal_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="13" t="str">
+      <c r="P25" s="29" t="str">
         <f>IF(_coal_day_hour!N21="","",_coal_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="13" t="str">
+      <c r="Q25" s="29" t="str">
         <f>IF(_coal_day_hour!O21="","",_coal_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="13" t="str">
+      <c r="R25" s="29" t="str">
         <f>IF(_coal_day_hour!P21="","",_coal_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="17" t="str">
+      <c r="S25" s="37" t="str">
         <f>IF(_coal_day_hour!Q21="","",_coal_day_hour!Q21)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C26" s="8" t="str">
+    <row r="26" ht="15" customHeight="1" spans="2:19">
+      <c r="B26" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C26" s="16" t="str">
         <f>IF(_coal_day_hour!A22="","",_coal_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D26" s="8" t="str">
+      <c r="D26" s="16" t="str">
         <f>IF(_coal_day_hour!B22="","",_coal_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E26" s="8" t="str">
+      <c r="E26" s="16" t="str">
         <f>IF(_coal_day_hour!C22="","",_coal_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F26" s="8" t="str">
+      <c r="F26" s="16" t="str">
         <f>IF(_coal_day_hour!D22="","",_coal_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G26" s="8" t="str">
+      <c r="G26" s="16" t="str">
         <f>IF(_coal_day_hour!E22="","",_coal_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H26" s="8" t="str">
+      <c r="H26" s="16" t="str">
         <f>IF(_coal_day_hour!F22="","",_coal_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I26" s="8" t="str">
+      <c r="I26" s="16" t="str">
         <f>IF(_coal_day_hour!G22="","",_coal_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J26" s="8" t="str">
+      <c r="J26" s="16" t="str">
         <f>IF(_coal_day_hour!H22="","",_coal_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K26" s="8" t="str">
+      <c r="K26" s="16" t="str">
         <f>IF(_coal_day_hour!I22="","",_coal_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L26" s="8" t="str">
+      <c r="L26" s="16" t="str">
         <f>IF(_coal_day_hour!J22="","",_coal_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M26" s="8" t="str">
+      <c r="M26" s="16" t="str">
         <f>IF(_coal_day_hour!K22="","",_coal_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N26" s="8" t="str">
+      <c r="N26" s="16" t="str">
         <f>IF(_coal_day_hour!L22="","",_coal_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O26" s="8" t="str">
+      <c r="O26" s="16" t="str">
         <f>IF(_coal_day_hour!M22="","",_coal_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="13" t="str">
+      <c r="P26" s="29" t="str">
         <f>IF(_coal_day_hour!N22="","",_coal_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="13" t="str">
+      <c r="Q26" s="29" t="str">
         <f>IF(_coal_day_hour!O22="","",_coal_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="13" t="str">
+      <c r="R26" s="29" t="str">
         <f>IF(_coal_day_hour!P22="","",_coal_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="17" t="str">
+      <c r="S26" s="37" t="str">
         <f>IF(_coal_day_hour!Q22="","",_coal_day_hour!Q22)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
+    <row r="27" ht="15" customHeight="1" spans="2:19">
+      <c r="B27" s="15">
         <v>0.875</v>
       </c>
-      <c r="C27" s="8" t="str">
+      <c r="C27" s="16" t="str">
         <f>IF(_coal_day_hour!A23="","",_coal_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D27" s="8" t="str">
+      <c r="D27" s="16" t="str">
         <f>IF(_coal_day_hour!B23="","",_coal_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E27" s="8" t="str">
+      <c r="E27" s="16" t="str">
         <f>IF(_coal_day_hour!C23="","",_coal_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F27" s="8" t="str">
+      <c r="F27" s="16" t="str">
         <f>IF(_coal_day_hour!D23="","",_coal_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G27" s="8" t="str">
+      <c r="G27" s="16" t="str">
         <f>IF(_coal_day_hour!E23="","",_coal_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H27" s="8" t="str">
+      <c r="H27" s="16" t="str">
         <f>IF(_coal_day_hour!F23="","",_coal_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I27" s="8" t="str">
+      <c r="I27" s="16" t="str">
         <f>IF(_coal_day_hour!G23="","",_coal_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J27" s="8" t="str">
+      <c r="J27" s="16" t="str">
         <f>IF(_coal_day_hour!H23="","",_coal_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K27" s="8" t="str">
+      <c r="K27" s="16" t="str">
         <f>IF(_coal_day_hour!I23="","",_coal_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L27" s="8" t="str">
+      <c r="L27" s="16" t="str">
         <f>IF(_coal_day_hour!J23="","",_coal_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M27" s="8" t="str">
+      <c r="M27" s="16" t="str">
         <f>IF(_coal_day_hour!K23="","",_coal_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N27" s="8" t="str">
+      <c r="N27" s="16" t="str">
         <f>IF(_coal_day_hour!L23="","",_coal_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O27" s="8" t="str">
+      <c r="O27" s="16" t="str">
         <f>IF(_coal_day_hour!M23="","",_coal_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="13" t="str">
+      <c r="P27" s="29" t="str">
         <f>IF(_coal_day_hour!N23="","",_coal_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="13" t="str">
+      <c r="Q27" s="29" t="str">
         <f>IF(_coal_day_hour!O23="","",_coal_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="13" t="str">
+      <c r="R27" s="29" t="str">
         <f>IF(_coal_day_hour!P23="","",_coal_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="17" t="str">
+      <c r="S27" s="37" t="str">
         <f>IF(_coal_day_hour!Q23="","",_coal_day_hour!Q23)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C28" s="8" t="str">
+    <row r="28" ht="15" customHeight="1" spans="2:19">
+      <c r="B28" s="15">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C28" s="16" t="str">
         <f>IF(_coal_day_hour!A24="","",_coal_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D28" s="8" t="str">
+      <c r="D28" s="16" t="str">
         <f>IF(_coal_day_hour!B24="","",_coal_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E28" s="8" t="str">
+      <c r="E28" s="16" t="str">
         <f>IF(_coal_day_hour!C24="","",_coal_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F28" s="8" t="str">
+      <c r="F28" s="16" t="str">
         <f>IF(_coal_day_hour!D24="","",_coal_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G28" s="8" t="str">
+      <c r="G28" s="16" t="str">
         <f>IF(_coal_day_hour!E24="","",_coal_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H28" s="8" t="str">
+      <c r="H28" s="16" t="str">
         <f>IF(_coal_day_hour!F24="","",_coal_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I28" s="8" t="str">
+      <c r="I28" s="16" t="str">
         <f>IF(_coal_day_hour!G24="","",_coal_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J28" s="8" t="str">
+      <c r="J28" s="16" t="str">
         <f>IF(_coal_day_hour!H24="","",_coal_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K28" s="8" t="str">
+      <c r="K28" s="16" t="str">
         <f>IF(_coal_day_hour!I24="","",_coal_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L28" s="8" t="str">
+      <c r="L28" s="16" t="str">
         <f>IF(_coal_day_hour!J24="","",_coal_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M28" s="8" t="str">
+      <c r="M28" s="16" t="str">
         <f>IF(_coal_day_hour!K24="","",_coal_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N28" s="8" t="str">
+      <c r="N28" s="16" t="str">
         <f>IF(_coal_day_hour!L24="","",_coal_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O28" s="8" t="str">
+      <c r="O28" s="16" t="str">
         <f>IF(_coal_day_hour!M24="","",_coal_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="13" t="str">
+      <c r="P28" s="29" t="str">
         <f>IF(_coal_day_hour!N24="","",_coal_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="13" t="str">
+      <c r="Q28" s="29" t="str">
         <f>IF(_coal_day_hour!O24="","",_coal_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="13" t="str">
+      <c r="R28" s="29" t="str">
         <f>IF(_coal_day_hour!P24="","",_coal_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="17" t="str">
+      <c r="S28" s="37" t="str">
         <f>IF(_coal_day_hour!Q24="","",_coal_day_hour!Q24)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="C29" s="8" t="str">
+    <row r="29" ht="15" customHeight="1" spans="2:19">
+      <c r="B29" s="15">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C29" s="16" t="str">
         <f>IF(_coal_day_hour!A25="","",_coal_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D29" s="8" t="str">
+      <c r="D29" s="16" t="str">
         <f>IF(_coal_day_hour!B25="","",_coal_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E29" s="8" t="str">
+      <c r="E29" s="16" t="str">
         <f>IF(_coal_day_hour!C25="","",_coal_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F29" s="8" t="str">
+      <c r="F29" s="16" t="str">
         <f>IF(_coal_day_hour!D25="","",_coal_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G29" s="8" t="str">
+      <c r="G29" s="16" t="str">
         <f>IF(_coal_day_hour!E25="","",_coal_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H29" s="8" t="str">
+      <c r="H29" s="16" t="str">
         <f>IF(_coal_day_hour!F25="","",_coal_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I29" s="8" t="str">
+      <c r="I29" s="16" t="str">
         <f>IF(_coal_day_hour!G25="","",_coal_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J29" s="8" t="str">
+      <c r="J29" s="16" t="str">
         <f>IF(_coal_day_hour!H25="","",_coal_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K29" s="8" t="str">
+      <c r="K29" s="16" t="str">
         <f>IF(_coal_day_hour!I25="","",_coal_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L29" s="8" t="str">
+      <c r="L29" s="16" t="str">
         <f>IF(_coal_day_hour!J25="","",_coal_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M29" s="8" t="str">
+      <c r="M29" s="16" t="str">
         <f>IF(_coal_day_hour!K25="","",_coal_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N29" s="8" t="str">
+      <c r="N29" s="16" t="str">
         <f>IF(_coal_day_hour!L25="","",_coal_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O29" s="8" t="str">
+      <c r="O29" s="16" t="str">
         <f>IF(_coal_day_hour!M25="","",_coal_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="13" t="str">
+      <c r="P29" s="29" t="str">
         <f>IF(_coal_day_hour!N25="","",_coal_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="13" t="str">
+      <c r="Q29" s="29" t="str">
         <f>IF(_coal_day_hour!O25="","",_coal_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="13" t="str">
+      <c r="R29" s="29" t="str">
         <f>IF(_coal_day_hour!P25="","",_coal_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="17" t="str">
+      <c r="S29" s="37" t="str">
         <f>IF(_coal_day_hour!Q25="","",_coal_day_hour!Q25)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+    <row r="30" ht="15" customHeight="1" spans="2:19">
+      <c r="B30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="37"/>
     </row>
-    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+    <row r="31" ht="15" customHeight="1" spans="2:19">
+      <c r="B31" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="37"/>
     </row>
-    <row r="32" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+    <row r="32" ht="15.6" customHeight="1" spans="2:19">
+      <c r="B32" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="37"/>
     </row>
-    <row r="33" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+    <row r="33" ht="16.5" spans="2:19">
+      <c r="B33" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="38"/>
     </row>
-    <row r="34" spans="2:19" ht="71.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="24" t="s">
+    <row r="34" ht="71.45" customHeight="1" spans="2:19">
+      <c r="B34" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="24" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="24" t="s">
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="26"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="22"/>
     </row>
-    <row r="35" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="27" t="s">
+    <row r="35" ht="15" customHeight="1" spans="2:19">
+      <c r="B35" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="27" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="27" t="s">
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="29"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="25"/>
     </row>
-    <row r="37" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="44.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="41.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="22.5" customHeight="1"/>
+    <row r="40" ht="15" customHeight="1"/>
+    <row r="41" ht="15" customHeight="1"/>
+    <row r="46" ht="15.6" customHeight="1"/>
+    <row r="53" ht="44.1" customHeight="1"/>
+    <row r="59" ht="41.1" customHeight="1"/>
+    <row r="65" ht="15" customHeight="1"/>
+    <row r="70" ht="16.5" customHeight="1"/>
+    <row r="90" ht="15" customHeight="1"/>
+    <row r="96" ht="30" customHeight="1"/>
+    <row r="104" ht="36.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:S34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:S35"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="P2:S2"/>
@@ -3947,6 +4574,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:P3"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:S34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:S35"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -3955,27 +4588,28 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="63" x14ac:dyDescent="0.15">
+    <row r="1" ht="63" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -4029,20 +4663,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-装煤除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-装煤除尘报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19050" windowHeight="4005"/>
   </bookViews>
   <sheets>
     <sheet name="2.出焦除尘" sheetId="1" r:id="rId1"/>
@@ -693,10 +693,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -749,16 +749,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,16 +764,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -792,8 +792,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,8 +809,39 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,46 +865,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,6 +881,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,19 +930,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,31 +990,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,55 +1026,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,61 +1056,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,6 +1395,30 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1424,50 +1448,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,6 +1472,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1501,10 +1501,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1513,133 +1513,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -2505,9 +2505,9 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="26">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="I2" s="26" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>

--- a/excel/finished/焦化/CK67-装煤除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-装煤除尘报表设计.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19050" windowHeight="4005"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="2.出焦除尘" sheetId="1" r:id="rId1"/>
     <sheet name="_coal_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>6&amp;7#焦 装煤除尘</t>
   </si>
@@ -77,9 +76,6 @@
       </rPr>
       <t xml:space="preserve">                                                                                           SGSSG-BSMCSA35-G006-03A</t>
     </r>
-  </si>
-  <si>
-    <t>SGSSG-BSMCSA35-G006-03A</t>
   </si>
   <si>
     <t xml:space="preserve">         参数
@@ -693,12 +689,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,11 +728,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -750,13 +741,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -764,37 +748,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,9 +785,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,7 +854,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,23 +876,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,13 +921,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,7 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,85 +1005,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,13 +1035,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,7 +1053,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,24 +1095,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1350,15 +1341,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1395,6 +1377,35 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1437,26 +1448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1486,167 +1477,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1664,7 +1646,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1723,13 +1705,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1737,19 +1713,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1834,7 +1810,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13271500" y="7821295"/>
+          <a:off x="13271500" y="7783195"/>
           <a:ext cx="4516120" cy="870585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2026,7 +2002,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14585950" y="7611745"/>
+          <a:off x="14585950" y="7573645"/>
           <a:ext cx="4516120" cy="2661285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2462,7 +2438,7 @@
   <dimension ref="B1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:L2"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2473,7 +2449,7 @@
     <col min="257" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="2:19">
+    <row r="1" s="1" customFormat="1" ht="27" spans="2:19">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2495,7 +2471,7 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
     </row>
-    <row r="2" ht="19.5" spans="2:19">
+    <row r="2" s="1" customFormat="1" ht="16.5" spans="2:19">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2505,72 +2481,67 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="26" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
-      </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.75" spans="2:19">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-    </row>
-    <row r="3" ht="15.75" spans="2:19">
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="9"/>
       <c r="H3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="S3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="32" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" ht="36.75" spans="2:19">
+    <row r="4" s="1" customFormat="1" ht="36.75" spans="2:19">
       <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -2585,84 +2556,84 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="13"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="78.75" spans="2:19">
+      <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" ht="78.75" spans="2:19">
-      <c r="B5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="2:19">
+    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
       <c r="B6" s="15">
         <v>0</v>
       </c>
@@ -2690,7 +2661,7 @@
         <f>IF(_coal_day_hour!F2="","",_coal_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="28" t="str">
+      <c r="I6" s="26" t="str">
         <f>IF(_coal_day_hour!G2="","",_coal_day_hour!G2)</f>
         <v/>
       </c>
@@ -2726,7 +2697,7 @@
         <f>IF(_coal_day_hour!O2="","",_coal_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="35" t="str">
+      <c r="R6" s="33" t="str">
         <f>IF(_coal_day_hour!P2="","",_coal_day_hour!P2)</f>
         <v/>
       </c>
@@ -2735,7 +2706,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="2:19">
+    <row r="7" s="1" customFormat="1" ht="15.75" spans="2:19">
       <c r="B7" s="15">
         <v>0.0416666666666667</v>
       </c>
@@ -2763,7 +2734,7 @@
         <f>IF(_coal_day_hour!F3="","",_coal_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="28" t="str">
+      <c r="I7" s="26" t="str">
         <f>IF(_coal_day_hour!G3="","",_coal_day_hour!G3)</f>
         <v/>
       </c>
@@ -2799,7 +2770,7 @@
         <f>IF(_coal_day_hour!O3="","",_coal_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="36" t="str">
+      <c r="R7" s="34" t="str">
         <f>IF(_coal_day_hour!P3="","",_coal_day_hour!P3)</f>
         <v/>
       </c>
@@ -2808,7 +2779,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="2:19">
+    <row r="8" s="1" customFormat="1" ht="15.75" spans="2:19">
       <c r="B8" s="15">
         <v>0.0833333333333333</v>
       </c>
@@ -2836,7 +2807,7 @@
         <f>IF(_coal_day_hour!F4="","",_coal_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I8" s="28" t="str">
+      <c r="I8" s="26" t="str">
         <f>IF(_coal_day_hour!G4="","",_coal_day_hour!G4)</f>
         <v/>
       </c>
@@ -2881,7 +2852,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="2:19">
+    <row r="9" s="1" customFormat="1" ht="15.75" spans="2:19">
       <c r="B9" s="15">
         <v>0.125</v>
       </c>
@@ -2909,7 +2880,7 @@
         <f>IF(_coal_day_hour!F5="","",_coal_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="28" t="str">
+      <c r="I9" s="26" t="str">
         <f>IF(_coal_day_hour!G5="","",_coal_day_hour!G5)</f>
         <v/>
       </c>
@@ -2954,7 +2925,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="2:19">
+    <row r="10" s="1" customFormat="1" ht="15.75" spans="2:19">
       <c r="B10" s="15">
         <v>0.166666666666667</v>
       </c>
@@ -2982,7 +2953,7 @@
         <f>IF(_coal_day_hour!F6="","",_coal_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I10" s="28" t="str">
+      <c r="I10" s="26" t="str">
         <f>IF(_coal_day_hour!G6="","",_coal_day_hour!G6)</f>
         <v/>
       </c>
@@ -3027,7 +2998,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="15.95" customHeight="1" spans="2:19">
+    <row r="11" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
       <c r="B11" s="15">
         <v>0.208333333333333</v>
       </c>
@@ -3055,7 +3026,7 @@
         <f>IF(_coal_day_hour!F7="","",_coal_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I11" s="28" t="str">
+      <c r="I11" s="26" t="str">
         <f>IF(_coal_day_hour!G7="","",_coal_day_hour!G7)</f>
         <v/>
       </c>
@@ -3100,7 +3071,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="15.95" customHeight="1" spans="2:19">
+    <row r="12" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
       <c r="B12" s="15">
         <v>0.25</v>
       </c>
@@ -3128,7 +3099,7 @@
         <f>IF(_coal_day_hour!F8="","",_coal_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I12" s="28" t="str">
+      <c r="I12" s="26" t="str">
         <f>IF(_coal_day_hour!G8="","",_coal_day_hour!G8)</f>
         <v/>
       </c>
@@ -3173,7 +3144,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="15.95" customHeight="1" spans="2:19">
+    <row r="13" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
       <c r="B13" s="15">
         <v>0.291666666666667</v>
       </c>
@@ -3201,7 +3172,7 @@
         <f>IF(_coal_day_hour!F9="","",_coal_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I13" s="28" t="str">
+      <c r="I13" s="26" t="str">
         <f>IF(_coal_day_hour!G9="","",_coal_day_hour!G9)</f>
         <v/>
       </c>
@@ -3246,7 +3217,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="15.95" customHeight="1" spans="2:19">
+    <row r="14" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
       <c r="B14" s="15">
         <v>0.333333333333333</v>
       </c>
@@ -3274,7 +3245,7 @@
         <f>IF(_coal_day_hour!F10="","",_coal_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="28" t="str">
+      <c r="I14" s="26" t="str">
         <f>IF(_coal_day_hour!G10="","",_coal_day_hour!G10)</f>
         <v/>
       </c>
@@ -3319,7 +3290,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.95" customHeight="1" spans="2:19">
+    <row r="15" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
       <c r="B15" s="15">
         <v>0.375</v>
       </c>
@@ -3347,7 +3318,7 @@
         <f>IF(_coal_day_hour!F11="","",_coal_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I15" s="28" t="str">
+      <c r="I15" s="26" t="str">
         <f>IF(_coal_day_hour!G11="","",_coal_day_hour!G11)</f>
         <v/>
       </c>
@@ -3392,7 +3363,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="15.95" customHeight="1" spans="2:19">
+    <row r="16" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
       <c r="B16" s="15">
         <v>0.416666666666667</v>
       </c>
@@ -3420,7 +3391,7 @@
         <f>IF(_coal_day_hour!F12="","",_coal_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I16" s="28" t="str">
+      <c r="I16" s="26" t="str">
         <f>IF(_coal_day_hour!G12="","",_coal_day_hour!G12)</f>
         <v/>
       </c>
@@ -3465,7 +3436,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="15.95" customHeight="1" spans="2:19">
+    <row r="17" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
       <c r="B17" s="15">
         <v>0.458333333333333</v>
       </c>
@@ -3493,7 +3464,7 @@
         <f>IF(_coal_day_hour!F13="","",_coal_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I17" s="28" t="str">
+      <c r="I17" s="26" t="str">
         <f>IF(_coal_day_hour!G13="","",_coal_day_hour!G13)</f>
         <v/>
       </c>
@@ -3538,7 +3509,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="15.95" customHeight="1" spans="2:19">
+    <row r="18" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
       <c r="B18" s="15">
         <v>0.5</v>
       </c>
@@ -3594,24 +3565,24 @@
         <f>IF(_coal_day_hour!M14="","",_coal_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="29" t="str">
+      <c r="P18" s="27" t="str">
         <f>IF(_coal_day_hour!N14="","",_coal_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="29" t="str">
+      <c r="Q18" s="27" t="str">
         <f>IF(_coal_day_hour!O14="","",_coal_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="35" t="str">
+      <c r="R18" s="33" t="str">
         <f>IF(_coal_day_hour!P14="","",_coal_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="37" t="str">
+      <c r="S18" s="35" t="str">
         <f>IF(_coal_day_hour!Q14="","",_coal_day_hour!Q14)</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.95" customHeight="1" spans="2:19">
+    <row r="19" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
       <c r="B19" s="15">
         <v>0.541666666666667</v>
       </c>
@@ -3667,24 +3638,24 @@
         <f>IF(_coal_day_hour!M15="","",_coal_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="29" t="str">
+      <c r="P19" s="27" t="str">
         <f>IF(_coal_day_hour!N15="","",_coal_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="29" t="str">
+      <c r="Q19" s="27" t="str">
         <f>IF(_coal_day_hour!O15="","",_coal_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="36" t="str">
+      <c r="R19" s="34" t="str">
         <f>IF(_coal_day_hour!P15="","",_coal_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="37" t="str">
+      <c r="S19" s="35" t="str">
         <f>IF(_coal_day_hour!Q15="","",_coal_day_hour!Q15)</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.95" customHeight="1" spans="2:19">
+    <row r="20" s="1" customFormat="1" ht="15.95" customHeight="1" spans="2:19">
       <c r="B20" s="15">
         <v>0.583333333333333</v>
       </c>
@@ -3740,24 +3711,24 @@
         <f>IF(_coal_day_hour!M16="","",_coal_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="29" t="str">
+      <c r="P20" s="27" t="str">
         <f>IF(_coal_day_hour!N16="","",_coal_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="29" t="str">
+      <c r="Q20" s="27" t="str">
         <f>IF(_coal_day_hour!O16="","",_coal_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="29" t="str">
+      <c r="R20" s="27" t="str">
         <f>IF(_coal_day_hour!P16="","",_coal_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="37" t="str">
+      <c r="S20" s="35" t="str">
         <f>IF(_coal_day_hour!Q16="","",_coal_day_hour!Q16)</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15.6" customHeight="1" spans="2:19">
+    <row r="21" s="1" customFormat="1" ht="15.6" customHeight="1" spans="2:19">
       <c r="B21" s="15">
         <v>0.625</v>
       </c>
@@ -3813,24 +3784,24 @@
         <f>IF(_coal_day_hour!M17="","",_coal_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="29" t="str">
+      <c r="P21" s="27" t="str">
         <f>IF(_coal_day_hour!N17="","",_coal_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="29" t="str">
+      <c r="Q21" s="27" t="str">
         <f>IF(_coal_day_hour!O17="","",_coal_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="29" t="str">
+      <c r="R21" s="27" t="str">
         <f>IF(_coal_day_hour!P17="","",_coal_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="37" t="str">
+      <c r="S21" s="35" t="str">
         <f>IF(_coal_day_hour!Q17="","",_coal_day_hour!Q17)</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="2:19">
+    <row r="22" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
       <c r="B22" s="15">
         <v>0.666666666666667</v>
       </c>
@@ -3886,24 +3857,24 @@
         <f>IF(_coal_day_hour!M18="","",_coal_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="29" t="str">
+      <c r="P22" s="27" t="str">
         <f>IF(_coal_day_hour!N18="","",_coal_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="29" t="str">
+      <c r="Q22" s="27" t="str">
         <f>IF(_coal_day_hour!O18="","",_coal_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="29" t="str">
+      <c r="R22" s="27" t="str">
         <f>IF(_coal_day_hour!P18="","",_coal_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="37" t="str">
+      <c r="S22" s="35" t="str">
         <f>IF(_coal_day_hour!Q18="","",_coal_day_hour!Q18)</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="2:19">
+    <row r="23" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
       <c r="B23" s="15">
         <v>0.708333333333333</v>
       </c>
@@ -3959,24 +3930,24 @@
         <f>IF(_coal_day_hour!M19="","",_coal_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="29" t="str">
+      <c r="P23" s="27" t="str">
         <f>IF(_coal_day_hour!N19="","",_coal_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="29" t="str">
+      <c r="Q23" s="27" t="str">
         <f>IF(_coal_day_hour!O19="","",_coal_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="29" t="str">
+      <c r="R23" s="27" t="str">
         <f>IF(_coal_day_hour!P19="","",_coal_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="37" t="str">
+      <c r="S23" s="35" t="str">
         <f>IF(_coal_day_hour!Q19="","",_coal_day_hour!Q19)</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="2:19">
+    <row r="24" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
       <c r="B24" s="15">
         <v>0.75</v>
       </c>
@@ -4032,24 +4003,24 @@
         <f>IF(_coal_day_hour!M20="","",_coal_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="29" t="str">
+      <c r="P24" s="27" t="str">
         <f>IF(_coal_day_hour!N20="","",_coal_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="29" t="str">
+      <c r="Q24" s="27" t="str">
         <f>IF(_coal_day_hour!O20="","",_coal_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="29" t="str">
+      <c r="R24" s="27" t="str">
         <f>IF(_coal_day_hour!P20="","",_coal_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="37" t="str">
+      <c r="S24" s="35" t="str">
         <f>IF(_coal_day_hour!Q20="","",_coal_day_hour!Q20)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="2:19">
+    <row r="25" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
       <c r="B25" s="15">
         <v>0.791666666666667</v>
       </c>
@@ -4105,24 +4076,24 @@
         <f>IF(_coal_day_hour!M21="","",_coal_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="29" t="str">
+      <c r="P25" s="27" t="str">
         <f>IF(_coal_day_hour!N21="","",_coal_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="29" t="str">
+      <c r="Q25" s="27" t="str">
         <f>IF(_coal_day_hour!O21="","",_coal_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="29" t="str">
+      <c r="R25" s="27" t="str">
         <f>IF(_coal_day_hour!P21="","",_coal_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="37" t="str">
+      <c r="S25" s="35" t="str">
         <f>IF(_coal_day_hour!Q21="","",_coal_day_hour!Q21)</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="2:19">
+    <row r="26" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
       <c r="B26" s="15">
         <v>0.833333333333333</v>
       </c>
@@ -4178,24 +4149,24 @@
         <f>IF(_coal_day_hour!M22="","",_coal_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="29" t="str">
+      <c r="P26" s="27" t="str">
         <f>IF(_coal_day_hour!N22="","",_coal_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="29" t="str">
+      <c r="Q26" s="27" t="str">
         <f>IF(_coal_day_hour!O22="","",_coal_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="29" t="str">
+      <c r="R26" s="27" t="str">
         <f>IF(_coal_day_hour!P22="","",_coal_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="37" t="str">
+      <c r="S26" s="35" t="str">
         <f>IF(_coal_day_hour!Q22="","",_coal_day_hour!Q22)</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="2:19">
+    <row r="27" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
       <c r="B27" s="15">
         <v>0.875</v>
       </c>
@@ -4251,24 +4222,24 @@
         <f>IF(_coal_day_hour!M23="","",_coal_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="29" t="str">
+      <c r="P27" s="27" t="str">
         <f>IF(_coal_day_hour!N23="","",_coal_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="29" t="str">
+      <c r="Q27" s="27" t="str">
         <f>IF(_coal_day_hour!O23="","",_coal_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="29" t="str">
+      <c r="R27" s="27" t="str">
         <f>IF(_coal_day_hour!P23="","",_coal_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="37" t="str">
+      <c r="S27" s="35" t="str">
         <f>IF(_coal_day_hour!Q23="","",_coal_day_hour!Q23)</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="2:19">
+    <row r="28" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
       <c r="B28" s="15">
         <v>0.916666666666667</v>
       </c>
@@ -4324,24 +4295,24 @@
         <f>IF(_coal_day_hour!M24="","",_coal_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="29" t="str">
+      <c r="P28" s="27" t="str">
         <f>IF(_coal_day_hour!N24="","",_coal_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="29" t="str">
+      <c r="Q28" s="27" t="str">
         <f>IF(_coal_day_hour!O24="","",_coal_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="29" t="str">
+      <c r="R28" s="27" t="str">
         <f>IF(_coal_day_hour!P24="","",_coal_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="37" t="str">
+      <c r="S28" s="35" t="str">
         <f>IF(_coal_day_hour!Q24="","",_coal_day_hour!Q24)</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="2:19">
+    <row r="29" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
       <c r="B29" s="15">
         <v>0.958333333333333</v>
       </c>
@@ -4397,26 +4368,26 @@
         <f>IF(_coal_day_hour!M25="","",_coal_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="29" t="str">
+      <c r="P29" s="27" t="str">
         <f>IF(_coal_day_hour!N25="","",_coal_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="29" t="str">
+      <c r="Q29" s="27" t="str">
         <f>IF(_coal_day_hour!O25="","",_coal_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="29" t="str">
+      <c r="R29" s="27" t="str">
         <f>IF(_coal_day_hour!P25="","",_coal_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="37" t="str">
+      <c r="S29" s="35" t="str">
         <f>IF(_coal_day_hour!Q25="","",_coal_day_hour!Q25)</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="2:19">
+    <row r="30" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
       <c r="B30" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -4431,14 +4402,14 @@
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="37"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="35"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="2:19">
+    <row r="31" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
       <c r="B31" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -4453,14 +4424,14 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="37"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="35"/>
     </row>
-    <row r="32" ht="15.6" customHeight="1" spans="2:19">
+    <row r="32" s="1" customFormat="1" ht="15.6" customHeight="1" spans="2:19">
       <c r="B32" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -4475,14 +4446,14 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="37"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="35"/>
     </row>
-    <row r="33" ht="16.5" spans="2:19">
+    <row r="33" s="1" customFormat="1" ht="16.5" spans="2:19">
       <c r="B33" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -4497,14 +4468,14 @@
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="38"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="36"/>
     </row>
-    <row r="34" ht="71.45" customHeight="1" spans="2:19">
+    <row r="34" s="1" customFormat="1" ht="71.45" customHeight="1" spans="2:19">
       <c r="B34" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -4512,7 +4483,7 @@
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
       <c r="H34" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -4520,7 +4491,7 @@
       <c r="L34" s="21"/>
       <c r="M34" s="22"/>
       <c r="N34" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
@@ -4528,9 +4499,9 @@
       <c r="R34" s="21"/>
       <c r="S34" s="22"/>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="2:19">
+    <row r="35" s="1" customFormat="1" ht="15" customHeight="1" spans="2:19">
       <c r="B35" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
@@ -4538,7 +4509,7 @@
       <c r="F35" s="24"/>
       <c r="G35" s="25"/>
       <c r="H35" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
@@ -4546,7 +4517,7 @@
       <c r="L35" s="24"/>
       <c r="M35" s="25"/>
       <c r="N35" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
@@ -4554,22 +4525,21 @@
       <c r="R35" s="24"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="37" ht="22.5" customHeight="1"/>
-    <row r="40" ht="15" customHeight="1"/>
-    <row r="41" ht="15" customHeight="1"/>
-    <row r="46" ht="15.6" customHeight="1"/>
-    <row r="53" ht="44.1" customHeight="1"/>
-    <row r="59" ht="41.1" customHeight="1"/>
-    <row r="65" ht="15" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1"/>
-    <row r="90" ht="15" customHeight="1"/>
-    <row r="96" ht="30" customHeight="1"/>
-    <row r="104" ht="36.95" customHeight="1"/>
+    <row r="37" s="1" customFormat="1" ht="22.5" customHeight="1"/>
+    <row r="40" s="1" customFormat="1" ht="15" customHeight="1"/>
+    <row r="41" s="1" customFormat="1" ht="15" customHeight="1"/>
+    <row r="46" s="1" customFormat="1" ht="15.6" customHeight="1"/>
+    <row r="53" s="1" customFormat="1" ht="44.1" customHeight="1"/>
+    <row r="59" s="1" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="65" s="1" customFormat="1" ht="15" customHeight="1"/>
+    <row r="70" s="1" customFormat="1" ht="16.5" customHeight="1"/>
+    <row r="90" s="1" customFormat="1" ht="15" customHeight="1"/>
+    <row r="96" s="1" customFormat="1" ht="30" customHeight="1"/>
+    <row r="104" s="1" customFormat="1" ht="36.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
     <mergeCell ref="B1:S1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="B2:S2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="K3:L3"/>
@@ -4589,7 +4559,6 @@
     <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4609,77 +4578,61 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63" spans="1:17">
+    <row r="1" s="1" customFormat="1" ht="63" spans="1:17">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>